--- a/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_healthcare_support_services.xlsx
+++ b/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_healthcare_support_services.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="gtsm_4139" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,115 +593,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.125</v>
+        <v>0.0125</v>
       </c>
       <c r="G2">
-        <v>0.0138006230529595</v>
+        <v>0.04384858044164038</v>
       </c>
       <c r="H2">
-        <v>0.0138006230529595</v>
+        <v>0.04384858044164038</v>
       </c>
       <c r="I2">
-        <v>0.09627158121486877</v>
+        <v>0.06876971608832808</v>
       </c>
       <c r="J2">
-        <v>0.09627158121486877</v>
+        <v>0.06395707953748124</v>
       </c>
       <c r="K2">
-        <v>-0.045</v>
+        <v>4.5</v>
       </c>
       <c r="L2">
-        <v>-0.001401869158878505</v>
+        <v>0.1419558359621451</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.01932960893854748</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0.3844444444444444</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.01932960893854748</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0.3844444444444444</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>2.01</v>
+        <v>4.12</v>
       </c>
       <c r="V2">
-        <v>0.03621621621621621</v>
+        <v>0.04603351955307262</v>
       </c>
       <c r="W2">
-        <v>-0.002980132450331126</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="X2">
-        <v>0.09112423495172976</v>
+        <v>0.05840834876452573</v>
       </c>
       <c r="Y2">
-        <v>-0.09410436740206089</v>
+        <v>0.2519364788216812</v>
       </c>
       <c r="Z2">
-        <v>1.108294867676379</v>
+        <v>1.110332749562172</v>
       </c>
       <c r="AA2">
-        <v>0.1066972993635287</v>
+        <v>0.07101363997681807</v>
       </c>
       <c r="AB2">
-        <v>0.07141989145815199</v>
+        <v>0.05217217314521609</v>
       </c>
       <c r="AC2">
-        <v>0.03527740790537676</v>
+        <v>0.01884146683160198</v>
       </c>
       <c r="AD2">
-        <v>18.8</v>
+        <v>20.2</v>
       </c>
       <c r="AE2">
-        <v>9.853411215013562</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>28.65341121501356</v>
+        <v>20.2</v>
       </c>
       <c r="AG2">
-        <v>26.64341121501356</v>
+        <v>16.08</v>
       </c>
       <c r="AH2">
-        <v>0.3404901928669719</v>
+        <v>0.1841385597082953</v>
       </c>
       <c r="AI2">
-        <v>0.6388234570980087</v>
+        <v>0.4902912621359223</v>
       </c>
       <c r="AJ2">
-        <v>0.3243523834829966</v>
+        <v>0.1523015722674749</v>
       </c>
       <c r="AK2">
-        <v>0.6218788480987468</v>
+        <v>0.4336569579288025</v>
       </c>
       <c r="AL2">
-        <v>0.569</v>
+        <v>0.746</v>
       </c>
       <c r="AM2">
-        <v>0.327</v>
+        <v>0.319</v>
       </c>
       <c r="AN2">
-        <v>3.082978025582158</v>
+        <v>6.824324324324325</v>
       </c>
       <c r="AO2">
-        <v>-0.8066783831282953</v>
+        <v>2.922252010723861</v>
       </c>
       <c r="AP2">
-        <v>4.369204856512556</v>
+        <v>5.432432432432432</v>
       </c>
       <c r="AQ2">
-        <v>-1.403669724770642</v>
+        <v>6.833855799373041</v>
       </c>
     </row>
     <row r="3">
@@ -719,115 +724,8836 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.125</v>
+        <v>0.0125</v>
       </c>
       <c r="G3">
-        <v>0.0138006230529595</v>
+        <v>0.04384858044164038</v>
       </c>
       <c r="H3">
-        <v>0.0138006230529595</v>
+        <v>0.04384858044164038</v>
       </c>
       <c r="I3">
-        <v>0.09627158121486877</v>
+        <v>0.06876971608832808</v>
       </c>
       <c r="J3">
-        <v>0.09627158121486877</v>
+        <v>0.06395707953748124</v>
       </c>
       <c r="K3">
-        <v>-0.045</v>
+        <v>4.5</v>
       </c>
       <c r="L3">
-        <v>-0.001401869158878505</v>
+        <v>0.1419558359621451</v>
       </c>
       <c r="M3">
+        <v>1.73</v>
+      </c>
+      <c r="N3">
+        <v>0.01932960893854748</v>
+      </c>
+      <c r="O3">
+        <v>0.3844444444444444</v>
+      </c>
+      <c r="P3">
+        <v>1.73</v>
+      </c>
+      <c r="Q3">
+        <v>0.01932960893854748</v>
+      </c>
+      <c r="R3">
+        <v>0.3844444444444444</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>4.12</v>
+      </c>
+      <c r="V3">
+        <v>0.04603351955307262</v>
+      </c>
+      <c r="W3">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="X3">
+        <v>0.05840834876452573</v>
+      </c>
+      <c r="Y3">
+        <v>0.2519364788216812</v>
+      </c>
+      <c r="Z3">
+        <v>1.110332749562172</v>
+      </c>
+      <c r="AA3">
+        <v>0.07101363997681807</v>
+      </c>
+      <c r="AB3">
+        <v>0.05217217314521609</v>
+      </c>
+      <c r="AC3">
+        <v>0.01884146683160198</v>
+      </c>
+      <c r="AD3">
+        <v>20.2</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>20.2</v>
+      </c>
+      <c r="AG3">
+        <v>16.08</v>
+      </c>
+      <c r="AH3">
+        <v>0.1841385597082953</v>
+      </c>
+      <c r="AI3">
+        <v>0.4902912621359223</v>
+      </c>
+      <c r="AJ3">
+        <v>0.1523015722674749</v>
+      </c>
+      <c r="AK3">
+        <v>0.4336569579288025</v>
+      </c>
+      <c r="AL3">
+        <v>0.746</v>
+      </c>
+      <c r="AM3">
+        <v>0.319</v>
+      </c>
+      <c r="AN3">
+        <v>6.824324324324325</v>
+      </c>
+      <c r="AO3">
+        <v>2.922252010723861</v>
+      </c>
+      <c r="AP3">
+        <v>5.432432432432432</v>
+      </c>
+      <c r="AQ3">
+        <v>6.833855799373041</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ma Kuang Healthcare Holding Limited (GTSM:4139)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GTSM:4139</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Healthcare Support Services</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Cayman Islands</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.184138559708295</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>89.5</v>
+      </c>
+      <c r="H2">
+        <v>117.095797680256</v>
+      </c>
+      <c r="I2">
+        <v>105.58</v>
+      </c>
+      <c r="J2">
+        <v>112.975797680256</v>
+      </c>
+      <c r="K2">
+        <v>20.2</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.0521721731452161</v>
+      </c>
+      <c r="N2">
+        <v>0.0493656081533733</v>
+      </c>
+      <c r="O2">
+        <v>0.02454159304976</v>
+      </c>
+      <c r="P2">
+        <v>0.0162</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>B1/B+</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0584083487645257</v>
+      </c>
+      <c r="T2">
+        <v>0.0493656081533733</v>
+      </c>
+      <c r="U2">
+        <v>0.925629938871916</v>
+      </c>
+      <c r="V2">
+        <v>0.755185775105164</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>89.5</v>
+      </c>
+      <c r="AB2">
+        <v>0.05305397621902236</v>
+      </c>
+      <c r="AC2">
+        <v>0.02454159304976002</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>2.96</v>
+      </c>
+      <c r="AH2">
+        <v>0.635</v>
+      </c>
+      <c r="AI2">
+        <v>0.258</v>
+      </c>
+      <c r="AJ2">
+        <v>20.2</v>
+      </c>
+      <c r="AK2">
+        <v>20.2</v>
+      </c>
+      <c r="AL2">
+        <v>0.746</v>
+      </c>
+      <c r="AM2">
+        <v>20.2</v>
+      </c>
+      <c r="AN2">
+        <v>4.12</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.04936560815337332</v>
+      </c>
+      <c r="C2">
+        <v>117.0957976802559</v>
+      </c>
+      <c r="D2">
+        <v>112.9757976802559</v>
+      </c>
+      <c r="E2">
+        <v>-20.2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>4.12</v>
+      </c>
+      <c r="H2">
+        <v>89.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2.96</v>
+      </c>
+      <c r="K2">
+        <v>0.635</v>
+      </c>
+      <c r="L2">
+        <v>2.325</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>2.325</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>2.325</v>
+      </c>
+      <c r="Q2">
+        <v>2.96</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.04936560815337332</v>
+      </c>
+      <c r="T2">
+        <v>0.7551857751051637</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0.0162</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.04943460815337333</v>
+      </c>
+      <c r="C3">
+        <v>115.8045680515487</v>
+      </c>
+      <c r="D3">
+        <v>112.7815680515487</v>
+      </c>
+      <c r="E3">
+        <v>-19.103</v>
+      </c>
+      <c r="F3">
+        <v>1.097</v>
+      </c>
+      <c r="G3">
+        <v>4.12</v>
+      </c>
+      <c r="H3">
+        <v>89.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2.96</v>
+      </c>
+      <c r="K3">
+        <v>0.635</v>
+      </c>
+      <c r="L3">
+        <v>2.325</v>
+      </c>
+      <c r="M3">
+        <v>0.0177714</v>
+      </c>
+      <c r="N3">
+        <v>2.3072286</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2.3072286</v>
+      </c>
+      <c r="Q3">
+        <v>2.9422286</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.04977031126603366</v>
+      </c>
+      <c r="T3">
+        <v>0.7628139142476401</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.0162</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>130.8281846112293</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.04950360815337332</v>
+      </c>
+      <c r="C4">
+        <v>114.5140051214289</v>
+      </c>
+      <c r="D4">
+        <v>112.5880051214289</v>
+      </c>
+      <c r="E4">
+        <v>-18.006</v>
+      </c>
+      <c r="F4">
+        <v>2.194</v>
+      </c>
+      <c r="G4">
+        <v>4.12</v>
+      </c>
+      <c r="H4">
+        <v>89.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2.96</v>
+      </c>
+      <c r="K4">
+        <v>0.635</v>
+      </c>
+      <c r="L4">
+        <v>2.325</v>
+      </c>
+      <c r="M4">
+        <v>0.0355428</v>
+      </c>
+      <c r="N4">
+        <v>2.2894572</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>2.2894572</v>
+      </c>
+      <c r="Q4">
+        <v>2.9244572</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05018327362589114</v>
+      </c>
+      <c r="T4">
+        <v>0.7705977296991466</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.0162</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>65.41409230561464</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.04957260815337331</v>
+      </c>
+      <c r="C5">
+        <v>113.2241054630856</v>
+      </c>
+      <c r="D5">
+        <v>112.3951054630856</v>
+      </c>
+      <c r="E5">
+        <v>-16.909</v>
+      </c>
+      <c r="F5">
+        <v>3.291</v>
+      </c>
+      <c r="G5">
+        <v>4.12</v>
+      </c>
+      <c r="H5">
+        <v>89.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2.96</v>
+      </c>
+      <c r="K5">
+        <v>0.635</v>
+      </c>
+      <c r="L5">
+        <v>2.325</v>
+      </c>
+      <c r="M5">
+        <v>0.0533142</v>
+      </c>
+      <c r="N5">
+        <v>2.2716858</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2.2716858</v>
+      </c>
+      <c r="Q5">
+        <v>2.9066858</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05060475067358074</v>
+      </c>
+      <c r="T5">
+        <v>0.7785420361908904</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.0162</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>43.60939487040977</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.04964160815337332</v>
+      </c>
+      <c r="C6">
+        <v>111.9348656731529</v>
+      </c>
+      <c r="D6">
+        <v>112.2028656731529</v>
+      </c>
+      <c r="E6">
+        <v>-15.812</v>
+      </c>
+      <c r="F6">
+        <v>4.388</v>
+      </c>
+      <c r="G6">
+        <v>4.12</v>
+      </c>
+      <c r="H6">
+        <v>89.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2.96</v>
+      </c>
+      <c r="K6">
+        <v>0.635</v>
+      </c>
+      <c r="L6">
+        <v>2.325</v>
+      </c>
+      <c r="M6">
+        <v>0.0710856</v>
+      </c>
+      <c r="N6">
+        <v>2.2539144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>2.2539144</v>
+      </c>
+      <c r="Q6">
+        <v>2.8889144</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05103500849309721</v>
+      </c>
+      <c r="T6">
+        <v>0.7866518490678789</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.0162</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>32.70704615280732</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.04971060815337331</v>
+      </c>
+      <c r="C7">
+        <v>110.6462823715093</v>
+      </c>
+      <c r="D7">
+        <v>112.0112823715093</v>
+      </c>
+      <c r="E7">
+        <v>-14.715</v>
+      </c>
+      <c r="F7">
+        <v>5.485</v>
+      </c>
+      <c r="G7">
+        <v>4.12</v>
+      </c>
+      <c r="H7">
+        <v>89.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2.96</v>
+      </c>
+      <c r="K7">
+        <v>0.635</v>
+      </c>
+      <c r="L7">
+        <v>2.325</v>
+      </c>
+      <c r="M7">
+        <v>0.08885700000000001</v>
+      </c>
+      <c r="N7">
+        <v>2.236143</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>2.236143</v>
+      </c>
+      <c r="Q7">
+        <v>2.871143</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05147432437197191</v>
+      </c>
+      <c r="T7">
+        <v>0.7949323948475407</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0.0162</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>26.16563692224586</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.04977960815337332</v>
+      </c>
+      <c r="C8">
+        <v>109.35835220108</v>
+      </c>
+      <c r="D8">
+        <v>111.82035220108</v>
+      </c>
+      <c r="E8">
+        <v>-13.618</v>
+      </c>
+      <c r="F8">
+        <v>6.582</v>
+      </c>
+      <c r="G8">
+        <v>4.12</v>
+      </c>
+      <c r="H8">
+        <v>89.5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2.96</v>
+      </c>
+      <c r="K8">
+        <v>0.635</v>
+      </c>
+      <c r="L8">
+        <v>2.325</v>
+      </c>
+      <c r="M8">
+        <v>0.1066284</v>
+      </c>
+      <c r="N8">
+        <v>2.2183716</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>2.2183716</v>
+      </c>
+      <c r="Q8">
+        <v>2.8533716</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05192298739720566</v>
+      </c>
+      <c r="T8">
+        <v>0.8033891224523018</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0.0162</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>21.80469743520488</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.04984860815337333</v>
+      </c>
+      <c r="C9">
+        <v>108.0710718276405</v>
+      </c>
+      <c r="D9">
+        <v>111.6300718276405</v>
+      </c>
+      <c r="E9">
+        <v>-12.521</v>
+      </c>
+      <c r="F9">
+        <v>7.679000000000001</v>
+      </c>
+      <c r="G9">
+        <v>4.12</v>
+      </c>
+      <c r="H9">
+        <v>89.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2.96</v>
+      </c>
+      <c r="K9">
+        <v>0.635</v>
+      </c>
+      <c r="L9">
+        <v>2.325</v>
+      </c>
+      <c r="M9">
+        <v>0.1243998</v>
+      </c>
+      <c r="N9">
+        <v>2.2006002</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>2.2006002</v>
+      </c>
+      <c r="Q9">
+        <v>2.8356002</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05238129908964874</v>
+      </c>
+      <c r="T9">
+        <v>0.8120277151668427</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.0162</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>18.68974065874704</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.04991760815337333</v>
+      </c>
+      <c r="C10">
+        <v>106.7844379396227</v>
+      </c>
+      <c r="D10">
+        <v>111.4404379396227</v>
+      </c>
+      <c r="E10">
+        <v>-11.424</v>
+      </c>
+      <c r="F10">
+        <v>8.776</v>
+      </c>
+      <c r="G10">
+        <v>4.12</v>
+      </c>
+      <c r="H10">
+        <v>89.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2.96</v>
+      </c>
+      <c r="K10">
+        <v>0.635</v>
+      </c>
+      <c r="L10">
+        <v>2.325</v>
+      </c>
+      <c r="M10">
+        <v>0.1421712</v>
+      </c>
+      <c r="N10">
+        <v>2.1828288</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>2.1828288</v>
+      </c>
+      <c r="Q10">
+        <v>2.8178288</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.05284957407975362</v>
+      </c>
+      <c r="T10">
+        <v>0.8208541033751779</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.0162</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>16.35352307640366</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.04998660815337332</v>
+      </c>
+      <c r="C11">
+        <v>105.4984472479227</v>
+      </c>
+      <c r="D11">
+        <v>111.2514472479227</v>
+      </c>
+      <c r="E11">
+        <v>-10.327</v>
+      </c>
+      <c r="F11">
+        <v>9.872999999999999</v>
+      </c>
+      <c r="G11">
+        <v>4.12</v>
+      </c>
+      <c r="H11">
+        <v>89.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2.96</v>
+      </c>
+      <c r="K11">
+        <v>0.635</v>
+      </c>
+      <c r="L11">
+        <v>2.325</v>
+      </c>
+      <c r="M11">
+        <v>0.1599426</v>
+      </c>
+      <c r="N11">
+        <v>2.1650574</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>2.1650574</v>
+      </c>
+      <c r="Q11">
+        <v>2.8000574</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05332814082788277</v>
+      </c>
+      <c r="T11">
+        <v>0.8298744781375426</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0.0162</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>14.53646495680326</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05021560815337332</v>
+      </c>
+      <c r="C12">
+        <v>103.7787855652643</v>
+      </c>
+      <c r="D12">
+        <v>110.6287855652643</v>
+      </c>
+      <c r="E12">
+        <v>-9.229999999999999</v>
+      </c>
+      <c r="F12">
+        <v>10.97</v>
+      </c>
+      <c r="G12">
+        <v>4.12</v>
+      </c>
+      <c r="H12">
+        <v>89.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2.96</v>
+      </c>
+      <c r="K12">
+        <v>0.635</v>
+      </c>
+      <c r="L12">
+        <v>2.325</v>
+      </c>
+      <c r="M12">
+        <v>0.195266</v>
+      </c>
+      <c r="N12">
+        <v>2.129734</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>2.129734</v>
+      </c>
+      <c r="Q12">
+        <v>2.764734</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05381734239263702</v>
+      </c>
+      <c r="T12">
+        <v>0.8390953056724042</v>
+      </c>
+      <c r="U12">
+        <v>0.0178</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0.0178</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>11.90683477922424</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05030060815337332</v>
+      </c>
+      <c r="C13">
+        <v>102.4524366068812</v>
+      </c>
+      <c r="D13">
+        <v>110.3994366068812</v>
+      </c>
+      <c r="E13">
+        <v>-8.132999999999999</v>
+      </c>
+      <c r="F13">
+        <v>12.067</v>
+      </c>
+      <c r="G13">
+        <v>4.12</v>
+      </c>
+      <c r="H13">
+        <v>89.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2.96</v>
+      </c>
+      <c r="K13">
+        <v>0.635</v>
+      </c>
+      <c r="L13">
+        <v>2.325</v>
+      </c>
+      <c r="M13">
+        <v>0.2147926</v>
+      </c>
+      <c r="N13">
+        <v>2.1102074</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>2.1102074</v>
+      </c>
+      <c r="Q13">
+        <v>2.7452074</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05431753725098126</v>
+      </c>
+      <c r="T13">
+        <v>0.8485233428147908</v>
+      </c>
+      <c r="U13">
+        <v>0.0178</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.0178</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>10.82439525384022</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05064960815337332</v>
+      </c>
+      <c r="C14">
+        <v>100.423640512638</v>
+      </c>
+      <c r="D14">
+        <v>109.467640512638</v>
+      </c>
+      <c r="E14">
+        <v>-7.036</v>
+      </c>
+      <c r="F14">
+        <v>13.164</v>
+      </c>
+      <c r="G14">
+        <v>4.12</v>
+      </c>
+      <c r="H14">
+        <v>89.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2.96</v>
+      </c>
+      <c r="K14">
+        <v>0.635</v>
+      </c>
+      <c r="L14">
+        <v>2.325</v>
+      </c>
+      <c r="M14">
+        <v>0.26328</v>
+      </c>
+      <c r="N14">
+        <v>2.06172</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>2.06172</v>
+      </c>
+      <c r="Q14">
+        <v>2.69672</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05482910017428787</v>
+      </c>
+      <c r="T14">
+        <v>0.8581656535285951</v>
+      </c>
+      <c r="U14">
+        <v>0.02</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.02</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>8.830902461257978</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05075660815337332</v>
+      </c>
+      <c r="C15">
+        <v>99.04410322710997</v>
+      </c>
+      <c r="D15">
+        <v>109.18510322711</v>
+      </c>
+      <c r="E15">
+        <v>-5.938999999999998</v>
+      </c>
+      <c r="F15">
+        <v>14.261</v>
+      </c>
+      <c r="G15">
+        <v>4.12</v>
+      </c>
+      <c r="H15">
+        <v>89.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2.96</v>
+      </c>
+      <c r="K15">
+        <v>0.635</v>
+      </c>
+      <c r="L15">
+        <v>2.325</v>
+      </c>
+      <c r="M15">
+        <v>0.28522</v>
+      </c>
+      <c r="N15">
+        <v>2.03978</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2.03978</v>
+      </c>
+      <c r="Q15">
+        <v>2.67478</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05535242316479692</v>
+      </c>
+      <c r="T15">
+        <v>0.8680296265576594</v>
+      </c>
+      <c r="U15">
+        <v>0.02</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0.02</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>8.151602271930441</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05101760815337332</v>
+      </c>
+      <c r="C16">
+        <v>97.26400289600983</v>
+      </c>
+      <c r="D16">
+        <v>108.5020028960098</v>
+      </c>
+      <c r="E16">
+        <v>-4.841999999999997</v>
+      </c>
+      <c r="F16">
+        <v>15.358</v>
+      </c>
+      <c r="G16">
+        <v>4.12</v>
+      </c>
+      <c r="H16">
+        <v>89.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2.96</v>
+      </c>
+      <c r="K16">
+        <v>0.635</v>
+      </c>
+      <c r="L16">
+        <v>2.325</v>
+      </c>
+      <c r="M16">
+        <v>0.3240538000000001</v>
+      </c>
+      <c r="N16">
+        <v>2.0009462</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>2.0009462</v>
+      </c>
+      <c r="Q16">
+        <v>2.6359462</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05588791645741084</v>
+      </c>
+      <c r="T16">
+        <v>0.87812299430833</v>
+      </c>
+      <c r="U16">
+        <v>0.0211</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0.0211</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>7.174734565680142</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05113560815337332</v>
+      </c>
+      <c r="C17">
+        <v>95.86096607936331</v>
+      </c>
+      <c r="D17">
+        <v>108.1959660793633</v>
+      </c>
+      <c r="E17">
+        <v>-3.745000000000001</v>
+      </c>
+      <c r="F17">
+        <v>16.455</v>
+      </c>
+      <c r="G17">
+        <v>4.12</v>
+      </c>
+      <c r="H17">
+        <v>89.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2.96</v>
+      </c>
+      <c r="K17">
+        <v>0.635</v>
+      </c>
+      <c r="L17">
+        <v>2.325</v>
+      </c>
+      <c r="M17">
+        <v>0.3472005</v>
+      </c>
+      <c r="N17">
+        <v>1.9777995</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.9777995</v>
+      </c>
+      <c r="Q17">
+        <v>2.6127995</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05643600959220391</v>
+      </c>
+      <c r="T17">
+        <v>0.8884538530648985</v>
+      </c>
+      <c r="U17">
+        <v>0.0211</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0.0211</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>6.696418927968135</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05149360815337332</v>
+      </c>
+      <c r="C18">
+        <v>93.8459560406007</v>
+      </c>
+      <c r="D18">
+        <v>107.2779560406007</v>
+      </c>
+      <c r="E18">
+        <v>-2.648</v>
+      </c>
+      <c r="F18">
+        <v>17.552</v>
+      </c>
+      <c r="G18">
+        <v>4.12</v>
+      </c>
+      <c r="H18">
+        <v>89.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2.96</v>
+      </c>
+      <c r="K18">
+        <v>0.635</v>
+      </c>
+      <c r="L18">
+        <v>2.325</v>
+      </c>
+      <c r="M18">
+        <v>0.3966752</v>
+      </c>
+      <c r="N18">
+        <v>1.9283248</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.9283248</v>
+      </c>
+      <c r="Q18">
+        <v>2.5633248</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.05699715256353967</v>
+      </c>
+      <c r="T18">
+        <v>0.8990306846490044</v>
+      </c>
+      <c r="U18">
+        <v>0.0226</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0.0226</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>5.861218447737596</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05162660815337332</v>
+      </c>
+      <c r="C19">
+        <v>92.41186387149283</v>
+      </c>
+      <c r="D19">
+        <v>106.9408638714928</v>
+      </c>
+      <c r="E19">
+        <v>-1.550999999999998</v>
+      </c>
+      <c r="F19">
+        <v>18.649</v>
+      </c>
+      <c r="G19">
+        <v>4.12</v>
+      </c>
+      <c r="H19">
+        <v>89.5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2.96</v>
+      </c>
+      <c r="K19">
+        <v>0.635</v>
+      </c>
+      <c r="L19">
+        <v>2.325</v>
+      </c>
+      <c r="M19">
+        <v>0.4214674</v>
+      </c>
+      <c r="N19">
+        <v>1.9035326</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.9035326</v>
+      </c>
+      <c r="Q19">
+        <v>2.5385326</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.05757181705225702</v>
+      </c>
+      <c r="T19">
+        <v>0.9098623796447757</v>
+      </c>
+      <c r="U19">
+        <v>0.0226</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0.0226</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>5.516440891988325</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05175960815337333</v>
+      </c>
+      <c r="C20">
+        <v>90.9798835098387</v>
+      </c>
+      <c r="D20">
+        <v>106.6058835098387</v>
+      </c>
+      <c r="E20">
+        <v>-0.4540000000000006</v>
+      </c>
+      <c r="F20">
+        <v>19.746</v>
+      </c>
+      <c r="G20">
+        <v>4.12</v>
+      </c>
+      <c r="H20">
+        <v>89.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2.96</v>
+      </c>
+      <c r="K20">
+        <v>0.635</v>
+      </c>
+      <c r="L20">
+        <v>2.325</v>
+      </c>
+      <c r="M20">
+        <v>0.4462595999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.8787404</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.8787404</v>
+      </c>
+      <c r="Q20">
+        <v>2.513740400000001</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.05816049774801625</v>
+      </c>
+      <c r="T20">
+        <v>0.9209582623233704</v>
+      </c>
+      <c r="U20">
+        <v>0.0226</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0.0226</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>5.20997195354453</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05189260815337332</v>
+      </c>
+      <c r="C21">
+        <v>89.54999517260067</v>
+      </c>
+      <c r="D21">
+        <v>106.2729951726007</v>
+      </c>
+      <c r="E21">
+        <v>0.6430000000000007</v>
+      </c>
+      <c r="F21">
+        <v>20.843</v>
+      </c>
+      <c r="G21">
+        <v>4.12</v>
+      </c>
+      <c r="H21">
+        <v>89.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2.96</v>
+      </c>
+      <c r="K21">
+        <v>0.635</v>
+      </c>
+      <c r="L21">
+        <v>2.325</v>
+      </c>
+      <c r="M21">
+        <v>0.4710518</v>
+      </c>
+      <c r="N21">
+        <v>1.8539482</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.8539482</v>
+      </c>
+      <c r="Q21">
+        <v>2.4889482</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.05876371376959669</v>
+      </c>
+      <c r="T21">
+        <v>0.9323281174137823</v>
+      </c>
+      <c r="U21">
+        <v>0.0226</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0.0226</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>4.935762903357976</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.05202560815337333</v>
+      </c>
+      <c r="C22">
+        <v>88.12217932307038</v>
+      </c>
+      <c r="D22">
+        <v>105.9421793230704</v>
+      </c>
+      <c r="E22">
+        <v>1.740000000000002</v>
+      </c>
+      <c r="F22">
+        <v>21.94</v>
+      </c>
+      <c r="G22">
+        <v>4.12</v>
+      </c>
+      <c r="H22">
+        <v>89.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>2.96</v>
+      </c>
+      <c r="K22">
+        <v>0.635</v>
+      </c>
+      <c r="L22">
+        <v>2.325</v>
+      </c>
+      <c r="M22">
+        <v>0.495844</v>
+      </c>
+      <c r="N22">
+        <v>1.829156</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.829156</v>
+      </c>
+      <c r="Q22">
+        <v>2.464156</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.05938201019171666</v>
+      </c>
+      <c r="T22">
+        <v>0.9439822188814546</v>
+      </c>
+      <c r="U22">
+        <v>0.0226</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.0226</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>4.688974758190076</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.07030260815337333</v>
+      </c>
+      <c r="C23">
+        <v>55.28382809068568</v>
+      </c>
+      <c r="D23">
+        <v>74.20082809068568</v>
+      </c>
+      <c r="E23">
+        <v>2.837</v>
+      </c>
+      <c r="F23">
+        <v>23.037</v>
+      </c>
+      <c r="G23">
+        <v>4.12</v>
+      </c>
+      <c r="H23">
+        <v>89.5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2.96</v>
+      </c>
+      <c r="K23">
+        <v>0.635</v>
+      </c>
+      <c r="L23">
+        <v>2.325</v>
+      </c>
+      <c r="M23">
+        <v>2.511033</v>
+      </c>
+      <c r="N23">
+        <v>-0.1860329999999997</v>
+      </c>
+      <c r="O23">
         <v>-0</v>
       </c>
-      <c r="N3">
+      <c r="P23">
+        <v>-0.1860329999999997</v>
+      </c>
+      <c r="Q23">
+        <v>0.4489670000000003</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06001595968781433</v>
+      </c>
+      <c r="T23">
+        <v>0.9559313608926123</v>
+      </c>
+      <c r="U23">
+        <v>0.109</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0.109</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.9259137574058167</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.07129960815337333</v>
+      </c>
+      <c r="C24">
+        <v>52.99362336230405</v>
+      </c>
+      <c r="D24">
+        <v>73.00762336230405</v>
+      </c>
+      <c r="E24">
+        <v>3.934000000000001</v>
+      </c>
+      <c r="F24">
+        <v>24.134</v>
+      </c>
+      <c r="G24">
+        <v>4.12</v>
+      </c>
+      <c r="H24">
+        <v>89.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2.96</v>
+      </c>
+      <c r="K24">
+        <v>0.635</v>
+      </c>
+      <c r="L24">
+        <v>2.325</v>
+      </c>
+      <c r="M24">
+        <v>2.630606</v>
+      </c>
+      <c r="N24">
+        <v>-0.305606</v>
+      </c>
+      <c r="O24">
         <v>-0</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="P24">
+        <v>-0.305606</v>
+      </c>
+      <c r="Q24">
+        <v>0.329394</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06066616429919656</v>
+      </c>
+      <c r="T24">
+        <v>0.9681868911604662</v>
+      </c>
+      <c r="U24">
+        <v>0.109</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0.109</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.8838267684328249</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.07229660815337333</v>
+      </c>
+      <c r="C25">
+        <v>50.74118654394386</v>
+      </c>
+      <c r="D25">
+        <v>71.85218654394386</v>
+      </c>
+      <c r="E25">
+        <v>5.031000000000002</v>
+      </c>
+      <c r="F25">
+        <v>25.231</v>
+      </c>
+      <c r="G25">
+        <v>4.12</v>
+      </c>
+      <c r="H25">
+        <v>89.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2.96</v>
+      </c>
+      <c r="K25">
+        <v>0.635</v>
+      </c>
+      <c r="L25">
+        <v>2.325</v>
+      </c>
+      <c r="M25">
+        <v>2.750179</v>
+      </c>
+      <c r="N25">
+        <v>-0.425179</v>
+      </c>
+      <c r="O25">
         <v>-0</v>
       </c>
-      <c r="Q3">
+      <c r="P25">
+        <v>-0.425179</v>
+      </c>
+      <c r="Q25">
+        <v>0.209821</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06133325734204327</v>
+      </c>
+      <c r="T25">
+        <v>0.980760746889823</v>
+      </c>
+      <c r="U25">
+        <v>0.109</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0.109</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.8453995176313979</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.07329360815337332</v>
+      </c>
+      <c r="C26">
+        <v>48.5247523996365</v>
+      </c>
+      <c r="D26">
+        <v>70.7327523996365</v>
+      </c>
+      <c r="E26">
+        <v>6.128</v>
+      </c>
+      <c r="F26">
+        <v>26.328</v>
+      </c>
+      <c r="G26">
+        <v>4.12</v>
+      </c>
+      <c r="H26">
+        <v>89.5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>2.96</v>
+      </c>
+      <c r="K26">
+        <v>0.635</v>
+      </c>
+      <c r="L26">
+        <v>2.325</v>
+      </c>
+      <c r="M26">
+        <v>2.869752</v>
+      </c>
+      <c r="N26">
+        <v>-0.5447519999999999</v>
+      </c>
+      <c r="O26">
         <v>-0</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>2.01</v>
-      </c>
-      <c r="V3">
-        <v>0.03621621621621621</v>
-      </c>
-      <c r="W3">
-        <v>-0.002980132450331126</v>
-      </c>
-      <c r="X3">
-        <v>0.09112423495172976</v>
-      </c>
-      <c r="Y3">
-        <v>-0.09410436740206089</v>
-      </c>
-      <c r="Z3">
-        <v>1.108294867676379</v>
-      </c>
-      <c r="AA3">
-        <v>0.1066972993635287</v>
-      </c>
-      <c r="AB3">
-        <v>0.07141989145815199</v>
-      </c>
-      <c r="AC3">
-        <v>0.03527740790537676</v>
-      </c>
-      <c r="AD3">
-        <v>18.8</v>
-      </c>
-      <c r="AE3">
-        <v>9.853411215013562</v>
-      </c>
-      <c r="AF3">
-        <v>28.65341121501356</v>
-      </c>
-      <c r="AG3">
-        <v>26.64341121501356</v>
-      </c>
-      <c r="AH3">
-        <v>0.3404901928669719</v>
-      </c>
-      <c r="AI3">
-        <v>0.6388234570980087</v>
-      </c>
-      <c r="AJ3">
-        <v>0.3243523834829966</v>
-      </c>
-      <c r="AK3">
-        <v>0.6218788480987468</v>
-      </c>
-      <c r="AL3">
-        <v>0.569</v>
-      </c>
-      <c r="AM3">
-        <v>0.327</v>
-      </c>
-      <c r="AN3">
-        <v>3.082978025582158</v>
-      </c>
-      <c r="AO3">
-        <v>-0.8066783831282953</v>
-      </c>
-      <c r="AP3">
-        <v>4.369204856512556</v>
-      </c>
-      <c r="AQ3">
-        <v>-1.403669724770642</v>
+      <c r="P26">
+        <v>-0.5447519999999999</v>
+      </c>
+      <c r="Q26">
+        <v>0.09024800000000011</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.0620179054649649</v>
+      </c>
+      <c r="T26">
+        <v>0.993665493559426</v>
+      </c>
+      <c r="U26">
+        <v>0.109</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0.109</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.8101745377300896</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.08209060815337332</v>
+      </c>
+      <c r="C27">
+        <v>38.8794514766861</v>
+      </c>
+      <c r="D27">
+        <v>62.18445147668609</v>
+      </c>
+      <c r="E27">
+        <v>7.225000000000001</v>
+      </c>
+      <c r="F27">
+        <v>27.425</v>
+      </c>
+      <c r="G27">
+        <v>4.12</v>
+      </c>
+      <c r="H27">
+        <v>89.5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2.96</v>
+      </c>
+      <c r="K27">
+        <v>0.635</v>
+      </c>
+      <c r="L27">
+        <v>2.325</v>
+      </c>
+      <c r="M27">
+        <v>3.844985</v>
+      </c>
+      <c r="N27">
+        <v>-1.519985</v>
+      </c>
+      <c r="O27">
+        <v>-0</v>
+      </c>
+      <c r="P27">
+        <v>-1.519985</v>
+      </c>
+      <c r="Q27">
+        <v>-0.8849849999999997</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.06272081087116443</v>
+      </c>
+      <c r="T27">
+        <v>1.006914366806885</v>
+      </c>
+      <c r="U27">
+        <v>0.1402</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0.1402</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.6046837633956961</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.08339960815337333</v>
+      </c>
+      <c r="C28">
+        <v>36.68393761120788</v>
+      </c>
+      <c r="D28">
+        <v>61.08593761120789</v>
+      </c>
+      <c r="E28">
+        <v>8.322000000000003</v>
+      </c>
+      <c r="F28">
+        <v>28.522</v>
+      </c>
+      <c r="G28">
+        <v>4.12</v>
+      </c>
+      <c r="H28">
+        <v>89.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2.96</v>
+      </c>
+      <c r="K28">
+        <v>0.635</v>
+      </c>
+      <c r="L28">
+        <v>2.325</v>
+      </c>
+      <c r="M28">
+        <v>3.9987844</v>
+      </c>
+      <c r="N28">
+        <v>-1.6737844</v>
+      </c>
+      <c r="O28">
+        <v>-0</v>
+      </c>
+      <c r="P28">
+        <v>-1.6737844</v>
+      </c>
+      <c r="Q28">
+        <v>-1.0387844</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.06344271372077476</v>
+      </c>
+      <c r="T28">
+        <v>1.020521317709681</v>
+      </c>
+      <c r="U28">
+        <v>0.1402</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0.1402</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.5814266955727847</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.08470860815337333</v>
+      </c>
+      <c r="C29">
+        <v>34.52656142483885</v>
+      </c>
+      <c r="D29">
+        <v>60.02556142483884</v>
+      </c>
+      <c r="E29">
+        <v>9.419000000000004</v>
+      </c>
+      <c r="F29">
+        <v>29.619</v>
+      </c>
+      <c r="G29">
+        <v>4.12</v>
+      </c>
+      <c r="H29">
+        <v>89.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2.96</v>
+      </c>
+      <c r="K29">
+        <v>0.635</v>
+      </c>
+      <c r="L29">
+        <v>2.325</v>
+      </c>
+      <c r="M29">
+        <v>4.1525838</v>
+      </c>
+      <c r="N29">
+        <v>-1.8275838</v>
+      </c>
+      <c r="O29">
+        <v>-0</v>
+      </c>
+      <c r="P29">
+        <v>-1.8275838</v>
+      </c>
+      <c r="Q29">
+        <v>-1.1925838</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06418439473064839</v>
+      </c>
+      <c r="T29">
+        <v>1.034501061787896</v>
+      </c>
+      <c r="U29">
+        <v>0.1402</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0.1402</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.5598923735145334</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.08601760815337331</v>
+      </c>
+      <c r="C30">
+        <v>32.40537073646351</v>
+      </c>
+      <c r="D30">
+        <v>59.00137073646351</v>
+      </c>
+      <c r="E30">
+        <v>10.51600000000001</v>
+      </c>
+      <c r="F30">
+        <v>30.716</v>
+      </c>
+      <c r="G30">
+        <v>4.12</v>
+      </c>
+      <c r="H30">
+        <v>89.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2.96</v>
+      </c>
+      <c r="K30">
+        <v>0.635</v>
+      </c>
+      <c r="L30">
+        <v>2.325</v>
+      </c>
+      <c r="M30">
+        <v>4.3063832</v>
+      </c>
+      <c r="N30">
+        <v>-1.9813832</v>
+      </c>
+      <c r="O30">
+        <v>-0</v>
+      </c>
+      <c r="P30">
+        <v>-1.9813832</v>
+      </c>
+      <c r="Q30">
+        <v>-1.3463832</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.06494667799079627</v>
+      </c>
+      <c r="T30">
+        <v>1.048869132090505</v>
+      </c>
+      <c r="U30">
+        <v>0.1402</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0.1402</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.5398962173175856</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.08732660815337331</v>
+      </c>
+      <c r="C31">
+        <v>30.31854436669208</v>
+      </c>
+      <c r="D31">
+        <v>58.01154436669209</v>
+      </c>
+      <c r="E31">
+        <v>11.613</v>
+      </c>
+      <c r="F31">
+        <v>31.813</v>
+      </c>
+      <c r="G31">
+        <v>4.12</v>
+      </c>
+      <c r="H31">
+        <v>89.5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>2.96</v>
+      </c>
+      <c r="K31">
+        <v>0.635</v>
+      </c>
+      <c r="L31">
+        <v>2.325</v>
+      </c>
+      <c r="M31">
+        <v>4.4601826</v>
+      </c>
+      <c r="N31">
+        <v>-2.135182599999999</v>
+      </c>
+      <c r="O31">
+        <v>-0</v>
+      </c>
+      <c r="P31">
+        <v>-2.135182599999999</v>
+      </c>
+      <c r="Q31">
+        <v>-1.500182599999999</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.06573043401883567</v>
+      </c>
+      <c r="T31">
+        <v>1.063641936767836</v>
+      </c>
+      <c r="U31">
+        <v>0.1402</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0.1402</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.5212791063756</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.08863560815337332</v>
+      </c>
+      <c r="C32">
+        <v>28.26438133052808</v>
+      </c>
+      <c r="D32">
+        <v>57.05438133052808</v>
+      </c>
+      <c r="E32">
+        <v>12.71</v>
+      </c>
+      <c r="F32">
+        <v>32.91</v>
+      </c>
+      <c r="G32">
+        <v>4.12</v>
+      </c>
+      <c r="H32">
+        <v>89.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2.96</v>
+      </c>
+      <c r="K32">
+        <v>0.635</v>
+      </c>
+      <c r="L32">
+        <v>2.325</v>
+      </c>
+      <c r="M32">
+        <v>4.613981999999999</v>
+      </c>
+      <c r="N32">
+        <v>-2.288981999999999</v>
+      </c>
+      <c r="O32">
+        <v>-0</v>
+      </c>
+      <c r="P32">
+        <v>-2.288981999999999</v>
+      </c>
+      <c r="Q32">
+        <v>-1.653981999999999</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.0665365830762476</v>
+      </c>
+      <c r="T32">
+        <v>1.078836821578805</v>
+      </c>
+      <c r="U32">
+        <v>0.1402</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0.1402</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.5039031361630801</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1034296081533733</v>
+      </c>
+      <c r="C33">
+        <v>18.20035667205367</v>
+      </c>
+      <c r="D33">
+        <v>48.08735667205367</v>
+      </c>
+      <c r="E33">
+        <v>13.807</v>
+      </c>
+      <c r="F33">
+        <v>34.007</v>
+      </c>
+      <c r="G33">
+        <v>4.12</v>
+      </c>
+      <c r="H33">
+        <v>89.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>2.96</v>
+      </c>
+      <c r="K33">
+        <v>0.635</v>
+      </c>
+      <c r="L33">
+        <v>2.325</v>
+      </c>
+      <c r="M33">
+        <v>6.2470859</v>
+      </c>
+      <c r="N33">
+        <v>-3.9220859</v>
+      </c>
+      <c r="O33">
+        <v>-0</v>
+      </c>
+      <c r="P33">
+        <v>-3.9220859</v>
+      </c>
+      <c r="Q33">
+        <v>-3.2870859</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.06736609877300481</v>
+      </c>
+      <c r="T33">
+        <v>1.094472137833571</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0.1837</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.3721735281405367</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1051736081533733</v>
+      </c>
+      <c r="C34">
+        <v>16.22861802758855</v>
+      </c>
+      <c r="D34">
+        <v>47.21261802758855</v>
+      </c>
+      <c r="E34">
+        <v>14.904</v>
+      </c>
+      <c r="F34">
+        <v>35.104</v>
+      </c>
+      <c r="G34">
+        <v>4.12</v>
+      </c>
+      <c r="H34">
+        <v>89.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2.96</v>
+      </c>
+      <c r="K34">
+        <v>0.635</v>
+      </c>
+      <c r="L34">
+        <v>2.325</v>
+      </c>
+      <c r="M34">
+        <v>6.4486048</v>
+      </c>
+      <c r="N34">
+        <v>-4.1236048</v>
+      </c>
+      <c r="O34">
+        <v>-0</v>
+      </c>
+      <c r="P34">
+        <v>-4.1236048</v>
+      </c>
+      <c r="Q34">
+        <v>-3.4886048</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.06822001199025489</v>
+      </c>
+      <c r="T34">
+        <v>1.110567316331123</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0.1837</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.360543105386145</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1069176081533733</v>
+      </c>
+      <c r="C35">
+        <v>14.28813489582869</v>
+      </c>
+      <c r="D35">
+        <v>46.36913489582869</v>
+      </c>
+      <c r="E35">
+        <v>16.001</v>
+      </c>
+      <c r="F35">
+        <v>36.201</v>
+      </c>
+      <c r="G35">
+        <v>4.12</v>
+      </c>
+      <c r="H35">
+        <v>89.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>2.96</v>
+      </c>
+      <c r="K35">
+        <v>0.635</v>
+      </c>
+      <c r="L35">
+        <v>2.325</v>
+      </c>
+      <c r="M35">
+        <v>6.6501237</v>
+      </c>
+      <c r="N35">
+        <v>-4.3251237</v>
+      </c>
+      <c r="O35">
+        <v>-0</v>
+      </c>
+      <c r="P35">
+        <v>-4.3251237</v>
+      </c>
+      <c r="Q35">
+        <v>-3.6901237</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.06909941515428855</v>
+      </c>
+      <c r="T35">
+        <v>1.127142947918155</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0.1837</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.3496175567380799</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1086616081533733</v>
+      </c>
+      <c r="C36">
+        <v>12.37726148172796</v>
+      </c>
+      <c r="D36">
+        <v>45.55526148172796</v>
+      </c>
+      <c r="E36">
+        <v>17.098</v>
+      </c>
+      <c r="F36">
+        <v>37.298</v>
+      </c>
+      <c r="G36">
+        <v>4.12</v>
+      </c>
+      <c r="H36">
+        <v>89.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>2.96</v>
+      </c>
+      <c r="K36">
+        <v>0.635</v>
+      </c>
+      <c r="L36">
+        <v>2.325</v>
+      </c>
+      <c r="M36">
+        <v>6.851642600000001</v>
+      </c>
+      <c r="N36">
+        <v>-4.526642600000001</v>
+      </c>
+      <c r="O36">
+        <v>-0</v>
+      </c>
+      <c r="P36">
+        <v>-4.526642600000001</v>
+      </c>
+      <c r="Q36">
+        <v>-3.891642600000001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07000546689905049</v>
+      </c>
+      <c r="T36">
+        <v>1.14422087137146</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0.1837</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.339334687422254</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1104056081533733</v>
+      </c>
+      <c r="C37">
+        <v>10.49446554542723</v>
+      </c>
+      <c r="D37">
+        <v>44.76946554542724</v>
+      </c>
+      <c r="E37">
+        <v>18.195</v>
+      </c>
+      <c r="F37">
+        <v>38.395</v>
+      </c>
+      <c r="G37">
+        <v>4.12</v>
+      </c>
+      <c r="H37">
+        <v>89.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>2.96</v>
+      </c>
+      <c r="K37">
+        <v>0.635</v>
+      </c>
+      <c r="L37">
+        <v>2.325</v>
+      </c>
+      <c r="M37">
+        <v>7.053161500000001</v>
+      </c>
+      <c r="N37">
+        <v>-4.728161500000001</v>
+      </c>
+      <c r="O37">
+        <v>-0</v>
+      </c>
+      <c r="P37">
+        <v>-4.728161500000001</v>
+      </c>
+      <c r="Q37">
+        <v>-4.093161500000001</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07093939715903588</v>
+      </c>
+      <c r="T37">
+        <v>1.16182426939256</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0.1837</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.329639410638761</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1121496081533733</v>
+      </c>
+      <c r="C38">
+        <v>8.638318774592761</v>
+      </c>
+      <c r="D38">
+        <v>44.01031877459276</v>
+      </c>
+      <c r="E38">
+        <v>19.292</v>
+      </c>
+      <c r="F38">
+        <v>39.492</v>
+      </c>
+      <c r="G38">
+        <v>4.12</v>
+      </c>
+      <c r="H38">
+        <v>89.5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2.96</v>
+      </c>
+      <c r="K38">
+        <v>0.635</v>
+      </c>
+      <c r="L38">
+        <v>2.325</v>
+      </c>
+      <c r="M38">
+        <v>7.2546804</v>
+      </c>
+      <c r="N38">
+        <v>-4.9296804</v>
+      </c>
+      <c r="O38">
+        <v>-0</v>
+      </c>
+      <c r="P38">
+        <v>-4.9296804</v>
+      </c>
+      <c r="Q38">
+        <v>-4.2946804</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.07190251273964582</v>
+      </c>
+      <c r="T38">
+        <v>1.179977773601818</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0.1837</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.32048276034324</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1138936081533733</v>
+      </c>
+      <c r="C39">
+        <v>6.8074881199476</v>
+      </c>
+      <c r="D39">
+        <v>43.2764881199476</v>
+      </c>
+      <c r="E39">
+        <v>20.389</v>
+      </c>
+      <c r="F39">
+        <v>40.589</v>
+      </c>
+      <c r="G39">
+        <v>4.12</v>
+      </c>
+      <c r="H39">
+        <v>89.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>2.96</v>
+      </c>
+      <c r="K39">
+        <v>0.635</v>
+      </c>
+      <c r="L39">
+        <v>2.325</v>
+      </c>
+      <c r="M39">
+        <v>7.4561993</v>
+      </c>
+      <c r="N39">
+        <v>-5.1311993</v>
+      </c>
+      <c r="O39">
+        <v>-0</v>
+      </c>
+      <c r="P39">
+        <v>-5.1311993</v>
+      </c>
+      <c r="Q39">
+        <v>-4.4961993</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.07289620341805289</v>
+      </c>
+      <c r="T39">
+        <v>1.198707579532006</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0.1837</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.311821064117747</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1156376081533733</v>
+      </c>
+      <c r="C40">
+        <v>5.000727983417804</v>
+      </c>
+      <c r="D40">
+        <v>42.56672798341781</v>
+      </c>
+      <c r="E40">
+        <v>21.486</v>
+      </c>
+      <c r="F40">
+        <v>41.686</v>
+      </c>
+      <c r="G40">
+        <v>4.12</v>
+      </c>
+      <c r="H40">
+        <v>89.5</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2.96</v>
+      </c>
+      <c r="K40">
+        <v>0.635</v>
+      </c>
+      <c r="L40">
+        <v>2.325</v>
+      </c>
+      <c r="M40">
+        <v>7.6577182</v>
+      </c>
+      <c r="N40">
+        <v>-5.3327182</v>
+      </c>
+      <c r="O40">
+        <v>-0</v>
+      </c>
+      <c r="P40">
+        <v>-5.3327182</v>
+      </c>
+      <c r="Q40">
+        <v>-4.6977182</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.0739219486344731</v>
+      </c>
+      <c r="T40">
+        <v>1.218041572750264</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0.1837</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.3036152466409642</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1173816081533733</v>
+      </c>
+      <c r="C41">
+        <v>3.216873162588954</v>
+      </c>
+      <c r="D41">
+        <v>41.87987316258896</v>
+      </c>
+      <c r="E41">
+        <v>22.583</v>
+      </c>
+      <c r="F41">
+        <v>42.783</v>
+      </c>
+      <c r="G41">
+        <v>4.12</v>
+      </c>
+      <c r="H41">
+        <v>89.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2.96</v>
+      </c>
+      <c r="K41">
+        <v>0.635</v>
+      </c>
+      <c r="L41">
+        <v>2.325</v>
+      </c>
+      <c r="M41">
+        <v>7.859237100000001</v>
+      </c>
+      <c r="N41">
+        <v>-5.5342371</v>
+      </c>
+      <c r="O41">
+        <v>-0</v>
+      </c>
+      <c r="P41">
+        <v>-5.5342371</v>
+      </c>
+      <c r="Q41">
+        <v>-4.899237100000001</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.07498132484159561</v>
+      </c>
+      <c r="T41">
+        <v>1.238009467385514</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0.1837</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.2958302403168369</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1191256081533733</v>
+      </c>
+      <c r="C42">
+        <v>1.454832467402845</v>
+      </c>
+      <c r="D42">
+        <v>41.21483246740285</v>
+      </c>
+      <c r="E42">
+        <v>23.68</v>
+      </c>
+      <c r="F42">
+        <v>43.88</v>
+      </c>
+      <c r="G42">
+        <v>4.12</v>
+      </c>
+      <c r="H42">
+        <v>89.5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2.96</v>
+      </c>
+      <c r="K42">
+        <v>0.635</v>
+      </c>
+      <c r="L42">
+        <v>2.325</v>
+      </c>
+      <c r="M42">
+        <v>8.060756000000001</v>
+      </c>
+      <c r="N42">
+        <v>-5.735756000000001</v>
+      </c>
+      <c r="O42">
+        <v>-0</v>
+      </c>
+      <c r="P42">
+        <v>-5.735756000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-5.100756000000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.07607601358895555</v>
+      </c>
+      <c r="T42">
+        <v>1.258642958508606</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0.1837</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.2884344843089159</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1208696081533733</v>
+      </c>
+      <c r="C43">
+        <v>-0.2864170644619648</v>
+      </c>
+      <c r="D43">
+        <v>40.57058293553804</v>
+      </c>
+      <c r="E43">
+        <v>24.777</v>
+      </c>
+      <c r="F43">
+        <v>44.977</v>
+      </c>
+      <c r="G43">
+        <v>4.12</v>
+      </c>
+      <c r="H43">
+        <v>89.5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>2.96</v>
+      </c>
+      <c r="K43">
+        <v>0.635</v>
+      </c>
+      <c r="L43">
+        <v>2.325</v>
+      </c>
+      <c r="M43">
+        <v>8.262274900000001</v>
+      </c>
+      <c r="N43">
+        <v>-5.937274900000001</v>
+      </c>
+      <c r="O43">
+        <v>-0</v>
+      </c>
+      <c r="P43">
+        <v>-5.937274900000001</v>
+      </c>
+      <c r="Q43">
+        <v>-5.302274900000001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.0772078104294463</v>
+      </c>
+      <c r="T43">
+        <v>1.279975890008752</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0.1837</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.2813994968867473</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1226136081533733</v>
+      </c>
+      <c r="C44">
+        <v>-2.007835418026417</v>
+      </c>
+      <c r="D44">
+        <v>39.94616458197358</v>
+      </c>
+      <c r="E44">
+        <v>25.874</v>
+      </c>
+      <c r="F44">
+        <v>46.074</v>
+      </c>
+      <c r="G44">
+        <v>4.12</v>
+      </c>
+      <c r="H44">
+        <v>89.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>2.96</v>
+      </c>
+      <c r="K44">
+        <v>0.635</v>
+      </c>
+      <c r="L44">
+        <v>2.325</v>
+      </c>
+      <c r="M44">
+        <v>8.463793799999999</v>
+      </c>
+      <c r="N44">
+        <v>-6.138793799999999</v>
+      </c>
+      <c r="O44">
+        <v>-0</v>
+      </c>
+      <c r="P44">
+        <v>-6.138793799999999</v>
+      </c>
+      <c r="Q44">
+        <v>-5.5037938</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.07837863474719538</v>
+      </c>
+      <c r="T44">
+        <v>1.302044439836489</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0.1837</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.2746995088656342</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1243576081533733</v>
+      </c>
+      <c r="C45">
+        <v>-3.710324373942278</v>
+      </c>
+      <c r="D45">
+        <v>39.34067562605772</v>
+      </c>
+      <c r="E45">
+        <v>26.971</v>
+      </c>
+      <c r="F45">
+        <v>47.171</v>
+      </c>
+      <c r="G45">
+        <v>4.12</v>
+      </c>
+      <c r="H45">
+        <v>89.5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>2.96</v>
+      </c>
+      <c r="K45">
+        <v>0.635</v>
+      </c>
+      <c r="L45">
+        <v>2.325</v>
+      </c>
+      <c r="M45">
+        <v>8.665312699999999</v>
+      </c>
+      <c r="N45">
+        <v>-6.340312699999999</v>
+      </c>
+      <c r="O45">
+        <v>-0</v>
+      </c>
+      <c r="P45">
+        <v>-6.340312699999999</v>
+      </c>
+      <c r="Q45">
+        <v>-5.705312699999999</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.0795905406199532</v>
+      </c>
+      <c r="T45">
+        <v>1.324887324745901</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0.1837</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.2683111481943404</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1261016081533733</v>
+      </c>
+      <c r="C46">
+        <v>-5.394731853826897</v>
+      </c>
+      <c r="D46">
+        <v>38.75326814617311</v>
+      </c>
+      <c r="E46">
+        <v>28.068</v>
+      </c>
+      <c r="F46">
+        <v>48.268</v>
+      </c>
+      <c r="G46">
+        <v>4.12</v>
+      </c>
+      <c r="H46">
+        <v>89.5</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>2.96</v>
+      </c>
+      <c r="K46">
+        <v>0.635</v>
+      </c>
+      <c r="L46">
+        <v>2.325</v>
+      </c>
+      <c r="M46">
+        <v>8.866831599999999</v>
+      </c>
+      <c r="N46">
+        <v>-6.541831599999999</v>
+      </c>
+      <c r="O46">
+        <v>-0</v>
+      </c>
+      <c r="P46">
+        <v>-6.541831599999999</v>
+      </c>
+      <c r="Q46">
+        <v>-5.906831599999999</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.08084572884530951</v>
+      </c>
+      <c r="T46">
+        <v>1.348546026973507</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0.1837</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.2622131675535599</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1278456081533733</v>
+      </c>
+      <c r="C47">
+        <v>-7.061855882036248</v>
+      </c>
+      <c r="D47">
+        <v>38.18314411796376</v>
+      </c>
+      <c r="E47">
+        <v>29.165</v>
+      </c>
+      <c r="F47">
+        <v>49.365</v>
+      </c>
+      <c r="G47">
+        <v>4.12</v>
+      </c>
+      <c r="H47">
+        <v>89.5</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2.96</v>
+      </c>
+      <c r="K47">
+        <v>0.635</v>
+      </c>
+      <c r="L47">
+        <v>2.325</v>
+      </c>
+      <c r="M47">
+        <v>9.068350500000001</v>
+      </c>
+      <c r="N47">
+        <v>-6.743350500000001</v>
+      </c>
+      <c r="O47">
+        <v>-0</v>
+      </c>
+      <c r="P47">
+        <v>-6.743350500000001</v>
+      </c>
+      <c r="Q47">
+        <v>-6.108350500000001</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.08214656027886059</v>
+      </c>
+      <c r="T47">
+        <v>1.373065045645752</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0.1837</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.2563862082745919</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1295896081533733</v>
+      </c>
+      <c r="C48">
+        <v>-8.712448202802818</v>
+      </c>
+      <c r="D48">
+        <v>37.62955179719719</v>
+      </c>
+      <c r="E48">
+        <v>30.262</v>
+      </c>
+      <c r="F48">
+        <v>50.462</v>
+      </c>
+      <c r="G48">
+        <v>4.12</v>
+      </c>
+      <c r="H48">
+        <v>89.5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>2.96</v>
+      </c>
+      <c r="K48">
+        <v>0.635</v>
+      </c>
+      <c r="L48">
+        <v>2.325</v>
+      </c>
+      <c r="M48">
+        <v>9.269869400000001</v>
+      </c>
+      <c r="N48">
+        <v>-6.944869400000001</v>
+      </c>
+      <c r="O48">
+        <v>-0</v>
+      </c>
+      <c r="P48">
+        <v>-6.944869400000001</v>
+      </c>
+      <c r="Q48">
+        <v>-6.309869400000001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.08349557065439504</v>
+      </c>
+      <c r="T48">
+        <v>1.398492176120673</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0.1837</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.2508125950512312</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1313336081533733</v>
+      </c>
+      <c r="C49">
+        <v>-10.34721758721561</v>
+      </c>
+      <c r="D49">
+        <v>37.0917824127844</v>
+      </c>
+      <c r="E49">
+        <v>31.35900000000001</v>
+      </c>
+      <c r="F49">
+        <v>51.559</v>
+      </c>
+      <c r="G49">
+        <v>4.12</v>
+      </c>
+      <c r="H49">
+        <v>89.5</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>2.96</v>
+      </c>
+      <c r="K49">
+        <v>0.635</v>
+      </c>
+      <c r="L49">
+        <v>2.325</v>
+      </c>
+      <c r="M49">
+        <v>9.471388300000001</v>
+      </c>
+      <c r="N49">
+        <v>-7.146388300000001</v>
+      </c>
+      <c r="O49">
+        <v>-0</v>
+      </c>
+      <c r="P49">
+        <v>-7.146388300000001</v>
+      </c>
+      <c r="Q49">
+        <v>-6.511388300000001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.08489548708183646</v>
+      </c>
+      <c r="T49">
+        <v>1.424878820953139</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0.1837</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.2454761568586519</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1330776081533733</v>
+      </c>
+      <c r="C50">
+        <v>-11.96683286063195</v>
+      </c>
+      <c r="D50">
+        <v>36.56916713936806</v>
+      </c>
+      <c r="E50">
+        <v>32.456</v>
+      </c>
+      <c r="F50">
+        <v>52.656</v>
+      </c>
+      <c r="G50">
+        <v>4.12</v>
+      </c>
+      <c r="H50">
+        <v>89.5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2.96</v>
+      </c>
+      <c r="K50">
+        <v>0.635</v>
+      </c>
+      <c r="L50">
+        <v>2.325</v>
+      </c>
+      <c r="M50">
+        <v>9.672907199999999</v>
+      </c>
+      <c r="N50">
+        <v>-7.347907199999999</v>
+      </c>
+      <c r="O50">
+        <v>-0</v>
+      </c>
+      <c r="P50">
+        <v>-7.347907199999999</v>
+      </c>
+      <c r="Q50">
+        <v>-6.712907199999999</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.08634924644879485</v>
+      </c>
+      <c r="T50">
+        <v>1.452280336740699</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0.1837</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.2403620702574299</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1348216081533733</v>
+      </c>
+      <c r="C51">
+        <v>-13.57192567771195</v>
+      </c>
+      <c r="D51">
+        <v>36.06107432228806</v>
+      </c>
+      <c r="E51">
+        <v>33.553</v>
+      </c>
+      <c r="F51">
+        <v>53.753</v>
+      </c>
+      <c r="G51">
+        <v>4.12</v>
+      </c>
+      <c r="H51">
+        <v>89.5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2.96</v>
+      </c>
+      <c r="K51">
+        <v>0.635</v>
+      </c>
+      <c r="L51">
+        <v>2.325</v>
+      </c>
+      <c r="M51">
+        <v>9.874426100000001</v>
+      </c>
+      <c r="N51">
+        <v>-7.549426100000001</v>
+      </c>
+      <c r="O51">
+        <v>-0</v>
+      </c>
+      <c r="P51">
+        <v>-7.549426100000001</v>
+      </c>
+      <c r="Q51">
+        <v>-6.914426100000001</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.08786001598700652</v>
+      </c>
+      <c r="T51">
+        <v>1.480756421774831</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0.1837</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.2354567218848294</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1365656081533733</v>
+      </c>
+      <c r="C52">
+        <v>-15.16309306928467</v>
+      </c>
+      <c r="D52">
+        <v>35.56690693071533</v>
+      </c>
+      <c r="E52">
+        <v>34.65000000000001</v>
+      </c>
+      <c r="F52">
+        <v>54.85</v>
+      </c>
+      <c r="G52">
+        <v>4.12</v>
+      </c>
+      <c r="H52">
+        <v>89.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>2.96</v>
+      </c>
+      <c r="K52">
+        <v>0.635</v>
+      </c>
+      <c r="L52">
+        <v>2.325</v>
+      </c>
+      <c r="M52">
+        <v>10.075945</v>
+      </c>
+      <c r="N52">
+        <v>-7.750945000000001</v>
+      </c>
+      <c r="O52">
+        <v>-0</v>
+      </c>
+      <c r="P52">
+        <v>-7.750945000000001</v>
+      </c>
+      <c r="Q52">
+        <v>-7.115945000000001</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.08943121630674665</v>
+      </c>
+      <c r="T52">
+        <v>1.510371550210327</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0.1837</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.2307475874471328</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1383096081533733</v>
+      </c>
+      <c r="C53">
+        <v>-16.74089978263758</v>
+      </c>
+      <c r="D53">
+        <v>35.08610021736243</v>
+      </c>
+      <c r="E53">
+        <v>35.747</v>
+      </c>
+      <c r="F53">
+        <v>55.947</v>
+      </c>
+      <c r="G53">
+        <v>4.12</v>
+      </c>
+      <c r="H53">
+        <v>89.5</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2.96</v>
+      </c>
+      <c r="K53">
+        <v>0.635</v>
+      </c>
+      <c r="L53">
+        <v>2.325</v>
+      </c>
+      <c r="M53">
+        <v>10.2774639</v>
+      </c>
+      <c r="N53">
+        <v>-7.952463900000001</v>
+      </c>
+      <c r="O53">
+        <v>-0</v>
+      </c>
+      <c r="P53">
+        <v>-7.952463900000001</v>
+      </c>
+      <c r="Q53">
+        <v>-7.317463900000001</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.09106654725178229</v>
+      </c>
+      <c r="T53">
+        <v>1.541195459398293</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0.1837</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.2262231249481693</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1400536081533733</v>
+      </c>
+      <c r="C54">
+        <v>-18.30588043451606</v>
+      </c>
+      <c r="D54">
+        <v>34.61811956548395</v>
+      </c>
+      <c r="E54">
+        <v>36.84400000000001</v>
+      </c>
+      <c r="F54">
+        <v>57.044</v>
+      </c>
+      <c r="G54">
+        <v>4.12</v>
+      </c>
+      <c r="H54">
+        <v>89.5</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>2.96</v>
+      </c>
+      <c r="K54">
+        <v>0.635</v>
+      </c>
+      <c r="L54">
+        <v>2.325</v>
+      </c>
+      <c r="M54">
+        <v>10.4789828</v>
+      </c>
+      <c r="N54">
+        <v>-8.153982800000001</v>
+      </c>
+      <c r="O54">
+        <v>-0</v>
+      </c>
+      <c r="P54">
+        <v>-8.153982800000001</v>
+      </c>
+      <c r="Q54">
+        <v>-7.518982800000002</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.09277001698619443</v>
+      </c>
+      <c r="T54">
+        <v>1.573303698135758</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0.1837</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.2218726802376275</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1417976081533733</v>
+      </c>
+      <c r="C55">
+        <v>-19.85854149409019</v>
+      </c>
+      <c r="D55">
+        <v>34.16245850590982</v>
+      </c>
+      <c r="E55">
+        <v>37.941</v>
+      </c>
+      <c r="F55">
+        <v>58.14100000000001</v>
+      </c>
+      <c r="G55">
+        <v>4.12</v>
+      </c>
+      <c r="H55">
+        <v>89.5</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>2.96</v>
+      </c>
+      <c r="K55">
+        <v>0.635</v>
+      </c>
+      <c r="L55">
+        <v>2.325</v>
+      </c>
+      <c r="M55">
+        <v>10.6805017</v>
+      </c>
+      <c r="N55">
+        <v>-8.355501700000001</v>
+      </c>
+      <c r="O55">
+        <v>-0</v>
+      </c>
+      <c r="P55">
+        <v>-8.355501700000001</v>
+      </c>
+      <c r="Q55">
+        <v>-7.720501700000002</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.09454597479441132</v>
+      </c>
+      <c r="T55">
+        <v>1.606778244904604</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0.1837</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.2176864032520119</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1435416081533733</v>
+      </c>
+      <c r="C56">
+        <v>-21.39936311135089</v>
+      </c>
+      <c r="D56">
+        <v>33.71863688864912</v>
+      </c>
+      <c r="E56">
+        <v>39.03800000000001</v>
+      </c>
+      <c r="F56">
+        <v>59.23800000000001</v>
+      </c>
+      <c r="G56">
+        <v>4.12</v>
+      </c>
+      <c r="H56">
+        <v>89.5</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>2.96</v>
+      </c>
+      <c r="K56">
+        <v>0.635</v>
+      </c>
+      <c r="L56">
+        <v>2.325</v>
+      </c>
+      <c r="M56">
+        <v>10.8820206</v>
+      </c>
+      <c r="N56">
+        <v>-8.557020600000001</v>
+      </c>
+      <c r="O56">
+        <v>-0</v>
+      </c>
+      <c r="P56">
+        <v>-8.557020600000001</v>
+      </c>
+      <c r="Q56">
+        <v>-7.922020600000002</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.09639914815950723</v>
+      </c>
+      <c r="T56">
+        <v>1.641708206750356</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0.1837</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.2136551735621599</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1452856081533733</v>
+      </c>
+      <c r="C57">
+        <v>-22.92880080481239</v>
+      </c>
+      <c r="D57">
+        <v>33.28619919518762</v>
+      </c>
+      <c r="E57">
+        <v>40.13500000000001</v>
+      </c>
+      <c r="F57">
+        <v>60.33500000000001</v>
+      </c>
+      <c r="G57">
+        <v>4.12</v>
+      </c>
+      <c r="H57">
+        <v>89.5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>2.96</v>
+      </c>
+      <c r="K57">
+        <v>0.635</v>
+      </c>
+      <c r="L57">
+        <v>2.325</v>
+      </c>
+      <c r="M57">
+        <v>11.0835395</v>
+      </c>
+      <c r="N57">
+        <v>-8.758539500000001</v>
+      </c>
+      <c r="O57">
+        <v>-0</v>
+      </c>
+      <c r="P57">
+        <v>-8.758539500000001</v>
+      </c>
+      <c r="Q57">
+        <v>-8.123539500000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.09833468478527406</v>
+      </c>
+      <c r="T57">
+        <v>1.678190611344808</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0.1837</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.209770534042848</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1470296081533733</v>
+      </c>
+      <c r="C58">
+        <v>-24.44728702099157</v>
+      </c>
+      <c r="D58">
+        <v>32.86471297900844</v>
+      </c>
+      <c r="E58">
+        <v>41.23200000000001</v>
+      </c>
+      <c r="F58">
+        <v>61.43200000000001</v>
+      </c>
+      <c r="G58">
+        <v>4.12</v>
+      </c>
+      <c r="H58">
+        <v>89.5</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>2.96</v>
+      </c>
+      <c r="K58">
+        <v>0.635</v>
+      </c>
+      <c r="L58">
+        <v>2.325</v>
+      </c>
+      <c r="M58">
+        <v>11.2850584</v>
+      </c>
+      <c r="N58">
+        <v>-8.960058400000001</v>
+      </c>
+      <c r="O58">
+        <v>-0</v>
+      </c>
+      <c r="P58">
+        <v>-8.960058400000001</v>
+      </c>
+      <c r="Q58">
+        <v>-8.325058400000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1003582003485757</v>
+      </c>
+      <c r="T58">
+        <v>1.71633130705719</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0.1837</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.2060246316492257</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1487736081533733</v>
+      </c>
+      <c r="C59">
+        <v>-25.95523257688745</v>
+      </c>
+      <c r="D59">
+        <v>32.45376742311257</v>
+      </c>
+      <c r="E59">
+        <v>42.32900000000001</v>
+      </c>
+      <c r="F59">
+        <v>62.52900000000001</v>
+      </c>
+      <c r="G59">
+        <v>4.12</v>
+      </c>
+      <c r="H59">
+        <v>89.5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>2.96</v>
+      </c>
+      <c r="K59">
+        <v>0.635</v>
+      </c>
+      <c r="L59">
+        <v>2.325</v>
+      </c>
+      <c r="M59">
+        <v>11.4865773</v>
+      </c>
+      <c r="N59">
+        <v>-9.161577300000001</v>
+      </c>
+      <c r="O59">
+        <v>-0</v>
+      </c>
+      <c r="P59">
+        <v>-9.161577300000001</v>
+      </c>
+      <c r="Q59">
+        <v>-8.526577300000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1024758329148217</v>
+      </c>
+      <c r="T59">
+        <v>1.75624598861666</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0.1837</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.2024101644273095</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1505176081533733</v>
+      </c>
+      <c r="C60">
+        <v>-27.45302799557515</v>
+      </c>
+      <c r="D60">
+        <v>32.05297200442485</v>
+      </c>
+      <c r="E60">
+        <v>43.426</v>
+      </c>
+      <c r="F60">
+        <v>63.626</v>
+      </c>
+      <c r="G60">
+        <v>4.12</v>
+      </c>
+      <c r="H60">
+        <v>89.5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>2.96</v>
+      </c>
+      <c r="K60">
+        <v>0.635</v>
+      </c>
+      <c r="L60">
+        <v>2.325</v>
+      </c>
+      <c r="M60">
+        <v>11.6880962</v>
+      </c>
+      <c r="N60">
+        <v>-9.363096200000001</v>
+      </c>
+      <c r="O60">
+        <v>-0</v>
+      </c>
+      <c r="P60">
+        <v>-9.363096200000001</v>
+      </c>
+      <c r="Q60">
+        <v>-8.728096200000001</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1046943051270793</v>
+      </c>
+      <c r="T60">
+        <v>1.798061369298009</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0.1837</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.1989203340061488</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1522616081533733</v>
+      </c>
+      <c r="C61">
+        <v>-28.94104474404194</v>
+      </c>
+      <c r="D61">
+        <v>31.66195525595806</v>
+      </c>
+      <c r="E61">
+        <v>44.523</v>
+      </c>
+      <c r="F61">
+        <v>64.723</v>
+      </c>
+      <c r="G61">
+        <v>4.12</v>
+      </c>
+      <c r="H61">
+        <v>89.5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>2.96</v>
+      </c>
+      <c r="K61">
+        <v>0.635</v>
+      </c>
+      <c r="L61">
+        <v>2.325</v>
+      </c>
+      <c r="M61">
+        <v>11.8896151</v>
+      </c>
+      <c r="N61">
+        <v>-9.564615100000001</v>
+      </c>
+      <c r="O61">
+        <v>-0</v>
+      </c>
+      <c r="P61">
+        <v>-9.564615100000001</v>
+      </c>
+      <c r="Q61">
+        <v>-8.929615100000001</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1070209954960325</v>
+      </c>
+      <c r="T61">
+        <v>1.84191652464674</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0.1837</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.1955488029212988</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1540056081533733</v>
+      </c>
+      <c r="C62">
+        <v>-30.4196363815123</v>
+      </c>
+      <c r="D62">
+        <v>31.28036361848769</v>
+      </c>
+      <c r="E62">
+        <v>45.61999999999999</v>
+      </c>
+      <c r="F62">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="G62">
+        <v>4.12</v>
+      </c>
+      <c r="H62">
+        <v>89.5</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>2.96</v>
+      </c>
+      <c r="K62">
+        <v>0.635</v>
+      </c>
+      <c r="L62">
+        <v>2.325</v>
+      </c>
+      <c r="M62">
+        <v>12.091134</v>
+      </c>
+      <c r="N62">
+        <v>-9.766133999999997</v>
+      </c>
+      <c r="O62">
+        <v>-0</v>
+      </c>
+      <c r="P62">
+        <v>-9.766133999999997</v>
+      </c>
+      <c r="Q62">
+        <v>-9.131133999999998</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1094640203834333</v>
+      </c>
+      <c r="T62">
+        <v>1.887964437762909</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0.1837</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.1922896562059441</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1557496081533733</v>
+      </c>
+      <c r="C63">
+        <v>-31.88913962572386</v>
+      </c>
+      <c r="D63">
+        <v>30.90786037427614</v>
+      </c>
+      <c r="E63">
+        <v>46.717</v>
+      </c>
+      <c r="F63">
+        <v>66.917</v>
+      </c>
+      <c r="G63">
+        <v>4.12</v>
+      </c>
+      <c r="H63">
+        <v>89.5</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>2.96</v>
+      </c>
+      <c r="K63">
+        <v>0.635</v>
+      </c>
+      <c r="L63">
+        <v>2.325</v>
+      </c>
+      <c r="M63">
+        <v>12.2926529</v>
+      </c>
+      <c r="N63">
+        <v>-9.967652900000001</v>
+      </c>
+      <c r="O63">
+        <v>-0</v>
+      </c>
+      <c r="P63">
+        <v>-9.967652900000001</v>
+      </c>
+      <c r="Q63">
+        <v>-9.332652900000001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1120323285983931</v>
+      </c>
+      <c r="T63">
+        <v>1.936373782320932</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0.1837</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.1891373667599449</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1574936081533733</v>
+      </c>
+      <c r="C64">
+        <v>-33.3498753439132</v>
+      </c>
+      <c r="D64">
+        <v>30.54412465608679</v>
+      </c>
+      <c r="E64">
+        <v>47.81399999999999</v>
+      </c>
+      <c r="F64">
+        <v>68.014</v>
+      </c>
+      <c r="G64">
+        <v>4.12</v>
+      </c>
+      <c r="H64">
+        <v>89.5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>2.96</v>
+      </c>
+      <c r="K64">
+        <v>0.635</v>
+      </c>
+      <c r="L64">
+        <v>2.325</v>
+      </c>
+      <c r="M64">
+        <v>12.4941718</v>
+      </c>
+      <c r="N64">
+        <v>-10.1691718</v>
+      </c>
+      <c r="O64">
+        <v>-0</v>
+      </c>
+      <c r="P64">
+        <v>-10.1691718</v>
+      </c>
+      <c r="Q64">
+        <v>-9.534171800000001</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1147358109299298</v>
+      </c>
+      <c r="T64">
+        <v>1.987330987118852</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0.1837</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.1860867640702683</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1592376081533733</v>
+      </c>
+      <c r="C65">
+        <v>-34.80214947464182</v>
+      </c>
+      <c r="D65">
+        <v>30.18885052535819</v>
+      </c>
+      <c r="E65">
+        <v>48.911</v>
+      </c>
+      <c r="F65">
+        <v>69.111</v>
+      </c>
+      <c r="G65">
+        <v>4.12</v>
+      </c>
+      <c r="H65">
+        <v>89.5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>2.96</v>
+      </c>
+      <c r="K65">
+        <v>0.635</v>
+      </c>
+      <c r="L65">
+        <v>2.325</v>
+      </c>
+      <c r="M65">
+        <v>12.6956907</v>
+      </c>
+      <c r="N65">
+        <v>-10.3706907</v>
+      </c>
+      <c r="O65">
+        <v>-0</v>
+      </c>
+      <c r="P65">
+        <v>-10.3706907</v>
+      </c>
+      <c r="Q65">
+        <v>-9.735690700000001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1175854274415495</v>
+      </c>
+      <c r="T65">
+        <v>2.041042635419361</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0.1837</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.1831330059104228</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1609816081533733</v>
+      </c>
+      <c r="C66">
+        <v>-36.24625388602824</v>
+      </c>
+      <c r="D66">
+        <v>29.84174611397176</v>
+      </c>
+      <c r="E66">
+        <v>50.008</v>
+      </c>
+      <c r="F66">
+        <v>70.208</v>
+      </c>
+      <c r="G66">
+        <v>4.12</v>
+      </c>
+      <c r="H66">
+        <v>89.5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>2.96</v>
+      </c>
+      <c r="K66">
+        <v>0.635</v>
+      </c>
+      <c r="L66">
+        <v>2.325</v>
+      </c>
+      <c r="M66">
+        <v>12.8972096</v>
+      </c>
+      <c r="N66">
+        <v>-10.5722096</v>
+      </c>
+      <c r="O66">
+        <v>-0</v>
+      </c>
+      <c r="P66">
+        <v>-10.5722096</v>
+      </c>
+      <c r="Q66">
+        <v>-9.937209600000001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1205933559815926</v>
+      </c>
+      <c r="T66">
+        <v>2.09773826418101</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0.1837</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1802715526930724</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1627256081533733</v>
+      </c>
+      <c r="C67">
+        <v>-37.68246717544694</v>
+      </c>
+      <c r="D67">
+        <v>29.50253282455307</v>
+      </c>
+      <c r="E67">
+        <v>51.105</v>
+      </c>
+      <c r="F67">
+        <v>71.30500000000001</v>
+      </c>
+      <c r="G67">
+        <v>4.12</v>
+      </c>
+      <c r="H67">
+        <v>89.5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>2.96</v>
+      </c>
+      <c r="K67">
+        <v>0.635</v>
+      </c>
+      <c r="L67">
+        <v>2.325</v>
+      </c>
+      <c r="M67">
+        <v>13.0987285</v>
+      </c>
+      <c r="N67">
+        <v>-10.7737285</v>
+      </c>
+      <c r="O67">
+        <v>-0</v>
+      </c>
+      <c r="P67">
+        <v>-10.7737285</v>
+      </c>
+      <c r="Q67">
+        <v>-10.1387285</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1237731661524952</v>
+      </c>
+      <c r="T67">
+        <v>2.157673643157611</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0.1837</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.1774981441901021</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1644696081533733</v>
+      </c>
+      <c r="C68">
+        <v>-39.1110554152984</v>
+      </c>
+      <c r="D68">
+        <v>29.1709445847016</v>
+      </c>
+      <c r="E68">
+        <v>52.202</v>
+      </c>
+      <c r="F68">
+        <v>72.402</v>
+      </c>
+      <c r="G68">
+        <v>4.12</v>
+      </c>
+      <c r="H68">
+        <v>89.5</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>2.96</v>
+      </c>
+      <c r="K68">
+        <v>0.635</v>
+      </c>
+      <c r="L68">
+        <v>2.325</v>
+      </c>
+      <c r="M68">
+        <v>13.3002474</v>
+      </c>
+      <c r="N68">
+        <v>-10.9752474</v>
+      </c>
+      <c r="O68">
+        <v>-0</v>
+      </c>
+      <c r="P68">
+        <v>-10.9752474</v>
+      </c>
+      <c r="Q68">
+        <v>-10.3402474</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1271400239805098</v>
+      </c>
+      <c r="T68">
+        <v>2.221134632662246</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0.1837</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.17480877836904</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1662136081533733</v>
+      </c>
+      <c r="C69">
+        <v>-40.53227284904701</v>
+      </c>
+      <c r="D69">
+        <v>28.846727150953</v>
+      </c>
+      <c r="E69">
+        <v>53.29900000000001</v>
+      </c>
+      <c r="F69">
+        <v>73.49900000000001</v>
+      </c>
+      <c r="G69">
+        <v>4.12</v>
+      </c>
+      <c r="H69">
+        <v>89.5</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>2.96</v>
+      </c>
+      <c r="K69">
+        <v>0.635</v>
+      </c>
+      <c r="L69">
+        <v>2.325</v>
+      </c>
+      <c r="M69">
+        <v>13.5017663</v>
+      </c>
+      <c r="N69">
+        <v>-11.1767663</v>
+      </c>
+      <c r="O69">
+        <v>-0</v>
+      </c>
+      <c r="P69">
+        <v>-11.1767663</v>
+      </c>
+      <c r="Q69">
+        <v>-10.5417663</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.130710933798101</v>
+      </c>
+      <c r="T69">
+        <v>2.288441742742921</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0.1837</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.172199692124726</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1679576081533734</v>
+      </c>
+      <c r="C70">
+        <v>-41.94636254135239</v>
+      </c>
+      <c r="D70">
+        <v>28.52963745864761</v>
+      </c>
+      <c r="E70">
+        <v>54.396</v>
+      </c>
+      <c r="F70">
+        <v>74.596</v>
+      </c>
+      <c r="G70">
+        <v>4.12</v>
+      </c>
+      <c r="H70">
+        <v>89.5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>2.96</v>
+      </c>
+      <c r="K70">
+        <v>0.635</v>
+      </c>
+      <c r="L70">
+        <v>2.325</v>
+      </c>
+      <c r="M70">
+        <v>13.7032852</v>
+      </c>
+      <c r="N70">
+        <v>-11.3782852</v>
+      </c>
+      <c r="O70">
+        <v>-0</v>
+      </c>
+      <c r="P70">
+        <v>-11.3782852</v>
+      </c>
+      <c r="Q70">
+        <v>-10.7432852</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1345050254792917</v>
+      </c>
+      <c r="T70">
+        <v>2.359955547203637</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0.1837</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1696673437111271</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1697016081533733</v>
+      </c>
+      <c r="C71">
+        <v>-43.35355698578906</v>
+      </c>
+      <c r="D71">
+        <v>28.21944301421096</v>
+      </c>
+      <c r="E71">
+        <v>55.49300000000001</v>
+      </c>
+      <c r="F71">
+        <v>75.69300000000001</v>
+      </c>
+      <c r="G71">
+        <v>4.12</v>
+      </c>
+      <c r="H71">
+        <v>89.5</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>2.96</v>
+      </c>
+      <c r="K71">
+        <v>0.635</v>
+      </c>
+      <c r="L71">
+        <v>2.325</v>
+      </c>
+      <c r="M71">
+        <v>13.9048041</v>
+      </c>
+      <c r="N71">
+        <v>-11.5798041</v>
+      </c>
+      <c r="O71">
+        <v>-0</v>
+      </c>
+      <c r="P71">
+        <v>-11.5798041</v>
+      </c>
+      <c r="Q71">
+        <v>-10.9448041</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1385438972689462</v>
+      </c>
+      <c r="T71">
+        <v>2.436083145500529</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0.1837</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.1672083967008209</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1714456081533733</v>
+      </c>
+      <c r="C72">
+        <v>-44.75407867334677</v>
+      </c>
+      <c r="D72">
+        <v>27.91592132665324</v>
+      </c>
+      <c r="E72">
+        <v>56.59</v>
+      </c>
+      <c r="F72">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="G72">
+        <v>4.12</v>
+      </c>
+      <c r="H72">
+        <v>89.5</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>2.96</v>
+      </c>
+      <c r="K72">
+        <v>0.635</v>
+      </c>
+      <c r="L72">
+        <v>2.325</v>
+      </c>
+      <c r="M72">
+        <v>14.106323</v>
+      </c>
+      <c r="N72">
+        <v>-11.781323</v>
+      </c>
+      <c r="O72">
+        <v>-0</v>
+      </c>
+      <c r="P72">
+        <v>-11.781323</v>
+      </c>
+      <c r="Q72">
+        <v>-11.146323</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1428520271779111</v>
+      </c>
+      <c r="T72">
+        <v>2.517285917017213</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0.1837</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1648197053193806</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1731896081533733</v>
+      </c>
+      <c r="C73">
+        <v>-46.14814062463364</v>
+      </c>
+      <c r="D73">
+        <v>27.61885937536636</v>
+      </c>
+      <c r="E73">
+        <v>57.687</v>
+      </c>
+      <c r="F73">
+        <v>77.887</v>
+      </c>
+      <c r="G73">
+        <v>4.12</v>
+      </c>
+      <c r="H73">
+        <v>89.5</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>2.96</v>
+      </c>
+      <c r="K73">
+        <v>0.635</v>
+      </c>
+      <c r="L73">
+        <v>2.325</v>
+      </c>
+      <c r="M73">
+        <v>14.3078419</v>
+      </c>
+      <c r="N73">
+        <v>-11.9828419</v>
+      </c>
+      <c r="O73">
+        <v>-0</v>
+      </c>
+      <c r="P73">
+        <v>-11.9828419</v>
+      </c>
+      <c r="Q73">
+        <v>-11.3478419</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1474572694943908</v>
+      </c>
+      <c r="T73">
+        <v>2.604088879672978</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0.1837</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.1624983010191076</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1749336081533733</v>
+      </c>
+      <c r="C74">
+        <v>-47.53594688845683</v>
+      </c>
+      <c r="D74">
+        <v>27.32805311154316</v>
+      </c>
+      <c r="E74">
+        <v>58.78399999999999</v>
+      </c>
+      <c r="F74">
+        <v>78.98399999999999</v>
+      </c>
+      <c r="G74">
+        <v>4.12</v>
+      </c>
+      <c r="H74">
+        <v>89.5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>2.96</v>
+      </c>
+      <c r="K74">
+        <v>0.635</v>
+      </c>
+      <c r="L74">
+        <v>2.325</v>
+      </c>
+      <c r="M74">
+        <v>14.5093608</v>
+      </c>
+      <c r="N74">
+        <v>-12.1843608</v>
+      </c>
+      <c r="O74">
+        <v>-0</v>
+      </c>
+      <c r="P74">
+        <v>-12.1843608</v>
+      </c>
+      <c r="Q74">
+        <v>-11.5493608</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.152391457690619</v>
+      </c>
+      <c r="T74">
+        <v>2.697092053947013</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0.1837</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1602413801716199</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1766776081533733</v>
+      </c>
+      <c r="C75">
+        <v>-48.91769300923339</v>
+      </c>
+      <c r="D75">
+        <v>27.04330699076661</v>
+      </c>
+      <c r="E75">
+        <v>59.881</v>
+      </c>
+      <c r="F75">
+        <v>80.081</v>
+      </c>
+      <c r="G75">
+        <v>4.12</v>
+      </c>
+      <c r="H75">
+        <v>89.5</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>2.96</v>
+      </c>
+      <c r="K75">
+        <v>0.635</v>
+      </c>
+      <c r="L75">
+        <v>2.325</v>
+      </c>
+      <c r="M75">
+        <v>14.7108797</v>
+      </c>
+      <c r="N75">
+        <v>-12.3858797</v>
+      </c>
+      <c r="O75">
+        <v>-0</v>
+      </c>
+      <c r="P75">
+        <v>-12.3858797</v>
+      </c>
+      <c r="Q75">
+        <v>-11.7508797</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1576911413087901</v>
+      </c>
+      <c r="T75">
+        <v>2.796984352241347</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0.1837</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1580462927720088</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1784216081533733</v>
+      </c>
+      <c r="C76">
+        <v>-50.29356646548106</v>
+      </c>
+      <c r="D76">
+        <v>26.76443353451894</v>
+      </c>
+      <c r="E76">
+        <v>60.97799999999999</v>
+      </c>
+      <c r="F76">
+        <v>81.178</v>
+      </c>
+      <c r="G76">
+        <v>4.12</v>
+      </c>
+      <c r="H76">
+        <v>89.5</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>2.96</v>
+      </c>
+      <c r="K76">
+        <v>0.635</v>
+      </c>
+      <c r="L76">
+        <v>2.325</v>
+      </c>
+      <c r="M76">
+        <v>14.9123986</v>
+      </c>
+      <c r="N76">
+        <v>-12.5873986</v>
+      </c>
+      <c r="O76">
+        <v>-0</v>
+      </c>
+      <c r="P76">
+        <v>-12.5873986</v>
+      </c>
+      <c r="Q76">
+        <v>-11.9523986</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1633984928975897</v>
+      </c>
+      <c r="T76">
+        <v>2.904560673481399</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0.1837</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1559105320588734</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1801656081533733</v>
+      </c>
+      <c r="C77">
+        <v>-51.6637470814556</v>
+      </c>
+      <c r="D77">
+        <v>26.49125291854441</v>
+      </c>
+      <c r="E77">
+        <v>62.075</v>
+      </c>
+      <c r="F77">
+        <v>82.27500000000001</v>
+      </c>
+      <c r="G77">
+        <v>4.12</v>
+      </c>
+      <c r="H77">
+        <v>89.5</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>2.96</v>
+      </c>
+      <c r="K77">
+        <v>0.635</v>
+      </c>
+      <c r="L77">
+        <v>2.325</v>
+      </c>
+      <c r="M77">
+        <v>15.1139175</v>
+      </c>
+      <c r="N77">
+        <v>-12.7889175</v>
+      </c>
+      <c r="O77">
+        <v>-0</v>
+      </c>
+      <c r="P77">
+        <v>-12.7889175</v>
+      </c>
+      <c r="Q77">
+        <v>-12.1539175</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1695624326134933</v>
+      </c>
+      <c r="T77">
+        <v>3.020743100420655</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0.1837</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1538317249647553</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1819096081533733</v>
+      </c>
+      <c r="C78">
+        <v>-53.02840741383346</v>
+      </c>
+      <c r="D78">
+        <v>26.22359258616654</v>
+      </c>
+      <c r="E78">
+        <v>63.172</v>
+      </c>
+      <c r="F78">
+        <v>83.372</v>
+      </c>
+      <c r="G78">
+        <v>4.12</v>
+      </c>
+      <c r="H78">
+        <v>89.5</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2.96</v>
+      </c>
+      <c r="K78">
+        <v>0.635</v>
+      </c>
+      <c r="L78">
+        <v>2.325</v>
+      </c>
+      <c r="M78">
+        <v>15.3154364</v>
+      </c>
+      <c r="N78">
+        <v>-12.9904364</v>
+      </c>
+      <c r="O78">
+        <v>-0</v>
+      </c>
+      <c r="P78">
+        <v>-12.9904364</v>
+      </c>
+      <c r="Q78">
+        <v>-12.3554364</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1762400339723889</v>
+      </c>
+      <c r="T78">
+        <v>3.146607396271516</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0.1837</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.151807623320482</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1836536081533733</v>
+      </c>
+      <c r="C79">
+        <v>-54.38771311518748</v>
+      </c>
+      <c r="D79">
+        <v>25.96128688481253</v>
+      </c>
+      <c r="E79">
+        <v>64.26900000000001</v>
+      </c>
+      <c r="F79">
+        <v>84.46900000000001</v>
+      </c>
+      <c r="G79">
+        <v>4.12</v>
+      </c>
+      <c r="H79">
+        <v>89.5</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>2.96</v>
+      </c>
+      <c r="K79">
+        <v>0.635</v>
+      </c>
+      <c r="L79">
+        <v>2.325</v>
+      </c>
+      <c r="M79">
+        <v>15.5169553</v>
+      </c>
+      <c r="N79">
+        <v>-13.1919553</v>
+      </c>
+      <c r="O79">
+        <v>-0</v>
+      </c>
+      <c r="P79">
+        <v>-13.1919553</v>
+      </c>
+      <c r="Q79">
+        <v>-12.5569553</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1834982963190145</v>
+      </c>
+      <c r="T79">
+        <v>3.283416413500712</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0.1837</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1498360957448914</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1853976081533733</v>
+      </c>
+      <c r="C80">
+        <v>-55.74182327586425</v>
+      </c>
+      <c r="D80">
+        <v>25.70417672413575</v>
+      </c>
+      <c r="E80">
+        <v>65.366</v>
+      </c>
+      <c r="F80">
+        <v>85.566</v>
+      </c>
+      <c r="G80">
+        <v>4.12</v>
+      </c>
+      <c r="H80">
+        <v>89.5</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>2.96</v>
+      </c>
+      <c r="K80">
+        <v>0.635</v>
+      </c>
+      <c r="L80">
+        <v>2.325</v>
+      </c>
+      <c r="M80">
+        <v>15.7184742</v>
+      </c>
+      <c r="N80">
+        <v>-13.3934742</v>
+      </c>
+      <c r="O80">
+        <v>-0</v>
+      </c>
+      <c r="P80">
+        <v>-13.3934742</v>
+      </c>
+      <c r="Q80">
+        <v>-12.7584742</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1914164006971515</v>
+      </c>
+      <c r="T80">
+        <v>3.432662614114381</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0.1837</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1479151201584185</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1871416081533733</v>
+      </c>
+      <c r="C81">
+        <v>-57.09089074574585</v>
+      </c>
+      <c r="D81">
+        <v>25.45210925425416</v>
+      </c>
+      <c r="E81">
+        <v>66.46300000000001</v>
+      </c>
+      <c r="F81">
+        <v>86.66300000000001</v>
+      </c>
+      <c r="G81">
+        <v>4.12</v>
+      </c>
+      <c r="H81">
+        <v>89.5</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2.96</v>
+      </c>
+      <c r="K81">
+        <v>0.635</v>
+      </c>
+      <c r="L81">
+        <v>2.325</v>
+      </c>
+      <c r="M81">
+        <v>15.9199931</v>
+      </c>
+      <c r="N81">
+        <v>-13.5949931</v>
+      </c>
+      <c r="O81">
+        <v>-0</v>
+      </c>
+      <c r="P81">
+        <v>-13.5949931</v>
+      </c>
+      <c r="Q81">
+        <v>-12.9599931</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2000886102541587</v>
+      </c>
+      <c r="T81">
+        <v>3.596122738596018</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0.1837</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1460427768652738</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1888856081533733</v>
+      </c>
+      <c r="C82">
+        <v>-58.43506243726308</v>
+      </c>
+      <c r="D82">
+        <v>25.20493756273692</v>
+      </c>
+      <c r="E82">
+        <v>67.56</v>
+      </c>
+      <c r="F82">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G82">
+        <v>4.12</v>
+      </c>
+      <c r="H82">
+        <v>89.5</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>2.96</v>
+      </c>
+      <c r="K82">
+        <v>0.635</v>
+      </c>
+      <c r="L82">
+        <v>2.325</v>
+      </c>
+      <c r="M82">
+        <v>16.121512</v>
+      </c>
+      <c r="N82">
+        <v>-13.796512</v>
+      </c>
+      <c r="O82">
+        <v>-0</v>
+      </c>
+      <c r="P82">
+        <v>-13.796512</v>
+      </c>
+      <c r="Q82">
+        <v>-13.161512</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2096280407668667</v>
+      </c>
+      <c r="T82">
+        <v>3.775928875525819</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0.1837</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1442172421544579</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1906296081533733</v>
+      </c>
+      <c r="C83">
+        <v>-59.77447961092305</v>
+      </c>
+      <c r="D83">
+        <v>24.96252038907696</v>
+      </c>
+      <c r="E83">
+        <v>68.65700000000001</v>
+      </c>
+      <c r="F83">
+        <v>88.85700000000001</v>
+      </c>
+      <c r="G83">
+        <v>4.12</v>
+      </c>
+      <c r="H83">
+        <v>89.5</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>2.96</v>
+      </c>
+      <c r="K83">
+        <v>0.635</v>
+      </c>
+      <c r="L83">
+        <v>2.325</v>
+      </c>
+      <c r="M83">
+        <v>16.3230309</v>
+      </c>
+      <c r="N83">
+        <v>-13.9980309</v>
+      </c>
+      <c r="O83">
+        <v>-0</v>
+      </c>
+      <c r="P83">
+        <v>-13.9980309</v>
+      </c>
+      <c r="Q83">
+        <v>-13.3630309</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2201716218598596</v>
+      </c>
+      <c r="T83">
+        <v>3.974661974237705</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0.1837</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1424367823747732</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1923736081533733</v>
+      </c>
+      <c r="C84">
+        <v>-61.10927814451659</v>
+      </c>
+      <c r="D84">
+        <v>24.72472185548342</v>
+      </c>
+      <c r="E84">
+        <v>69.754</v>
+      </c>
+      <c r="F84">
+        <v>89.95400000000001</v>
+      </c>
+      <c r="G84">
+        <v>4.12</v>
+      </c>
+      <c r="H84">
+        <v>89.5</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>2.96</v>
+      </c>
+      <c r="K84">
+        <v>0.635</v>
+      </c>
+      <c r="L84">
+        <v>2.325</v>
+      </c>
+      <c r="M84">
+        <v>16.5245498</v>
+      </c>
+      <c r="N84">
+        <v>-14.1995498</v>
+      </c>
+      <c r="O84">
+        <v>-0</v>
+      </c>
+      <c r="P84">
+        <v>-14.1995498</v>
+      </c>
+      <c r="Q84">
+        <v>-13.5645498</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2318867119631852</v>
+      </c>
+      <c r="T84">
+        <v>4.195476528362022</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0.1837</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1406997484433735</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1941176081533733</v>
+      </c>
+      <c r="C85">
+        <v>-62.43958878708364</v>
+      </c>
+      <c r="D85">
+        <v>24.49141121291638</v>
+      </c>
+      <c r="E85">
+        <v>70.85100000000001</v>
+      </c>
+      <c r="F85">
+        <v>91.05100000000002</v>
+      </c>
+      <c r="G85">
+        <v>4.12</v>
+      </c>
+      <c r="H85">
+        <v>89.5</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>2.96</v>
+      </c>
+      <c r="K85">
+        <v>0.635</v>
+      </c>
+      <c r="L85">
+        <v>2.325</v>
+      </c>
+      <c r="M85">
+        <v>16.7260687</v>
+      </c>
+      <c r="N85">
+        <v>-14.4010687</v>
+      </c>
+      <c r="O85">
+        <v>-0</v>
+      </c>
+      <c r="P85">
+        <v>-14.4010687</v>
+      </c>
+      <c r="Q85">
+        <v>-13.7660687</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2449800479610197</v>
+      </c>
+      <c r="T85">
+        <v>4.442269265324494</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0.1837</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1390045707512847</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1958616081533733</v>
+      </c>
+      <c r="C86">
+        <v>-63.76553739863402</v>
+      </c>
+      <c r="D86">
+        <v>24.26246260136598</v>
+      </c>
+      <c r="E86">
+        <v>71.94799999999999</v>
+      </c>
+      <c r="F86">
+        <v>92.148</v>
+      </c>
+      <c r="G86">
+        <v>4.12</v>
+      </c>
+      <c r="H86">
+        <v>89.5</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>2.96</v>
+      </c>
+      <c r="K86">
+        <v>0.635</v>
+      </c>
+      <c r="L86">
+        <v>2.325</v>
+      </c>
+      <c r="M86">
+        <v>16.9275876</v>
+      </c>
+      <c r="N86">
+        <v>-14.6025876</v>
+      </c>
+      <c r="O86">
+        <v>-0</v>
+      </c>
+      <c r="P86">
+        <v>-14.6025876</v>
+      </c>
+      <c r="Q86">
+        <v>-13.9675876</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2597100509585832</v>
+      </c>
+      <c r="T86">
+        <v>4.719911094407273</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0.1837</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1373497544328171</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1976056081533733</v>
+      </c>
+      <c r="C87">
+        <v>-65.08724517654747</v>
+      </c>
+      <c r="D87">
+        <v>24.03775482345253</v>
+      </c>
+      <c r="E87">
+        <v>73.045</v>
+      </c>
+      <c r="F87">
+        <v>93.245</v>
+      </c>
+      <c r="G87">
+        <v>4.12</v>
+      </c>
+      <c r="H87">
+        <v>89.5</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>2.96</v>
+      </c>
+      <c r="K87">
+        <v>0.635</v>
+      </c>
+      <c r="L87">
+        <v>2.325</v>
+      </c>
+      <c r="M87">
+        <v>17.1291065</v>
+      </c>
+      <c r="N87">
+        <v>-14.8041065</v>
+      </c>
+      <c r="O87">
+        <v>-0</v>
+      </c>
+      <c r="P87">
+        <v>-14.8041065</v>
+      </c>
+      <c r="Q87">
+        <v>-14.1691065</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2764040543558221</v>
+      </c>
+      <c r="T87">
+        <v>5.034571834034424</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0.1837</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1357338749689015</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1993496081533733</v>
+      </c>
+      <c r="C88">
+        <v>-66.4048288695076</v>
+      </c>
+      <c r="D88">
+        <v>23.8171711304924</v>
+      </c>
+      <c r="E88">
+        <v>74.142</v>
+      </c>
+      <c r="F88">
+        <v>94.342</v>
+      </c>
+      <c r="G88">
+        <v>4.12</v>
+      </c>
+      <c r="H88">
+        <v>89.5</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>2.96</v>
+      </c>
+      <c r="K88">
+        <v>0.635</v>
+      </c>
+      <c r="L88">
+        <v>2.325</v>
+      </c>
+      <c r="M88">
+        <v>17.3306254</v>
+      </c>
+      <c r="N88">
+        <v>-15.0056254</v>
+      </c>
+      <c r="O88">
+        <v>-0</v>
+      </c>
+      <c r="P88">
+        <v>-15.0056254</v>
+      </c>
+      <c r="Q88">
+        <v>-14.3706254</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.295482915381238</v>
+      </c>
+      <c r="T88">
+        <v>5.394184107894026</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0.1837</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1341555740971702</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2010936081533733</v>
+      </c>
+      <c r="C89">
+        <v>-67.7184009797646</v>
+      </c>
+      <c r="D89">
+        <v>23.60059902023541</v>
+      </c>
+      <c r="E89">
+        <v>75.239</v>
+      </c>
+      <c r="F89">
+        <v>95.43900000000001</v>
+      </c>
+      <c r="G89">
+        <v>4.12</v>
+      </c>
+      <c r="H89">
+        <v>89.5</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>2.96</v>
+      </c>
+      <c r="K89">
+        <v>0.635</v>
+      </c>
+      <c r="L89">
+        <v>2.325</v>
+      </c>
+      <c r="M89">
+        <v>17.5321443</v>
+      </c>
+      <c r="N89">
+        <v>-15.2071443</v>
+      </c>
+      <c r="O89">
+        <v>-0</v>
+      </c>
+      <c r="P89">
+        <v>-15.2071443</v>
+      </c>
+      <c r="Q89">
+        <v>-14.5721443</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3174969857951794</v>
+      </c>
+      <c r="T89">
+        <v>5.809121346962797</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0.1837</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1326135560040992</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2028376081533733</v>
+      </c>
+      <c r="C90">
+        <v>-69.0280699544616</v>
+      </c>
+      <c r="D90">
+        <v>23.3879300455384</v>
+      </c>
+      <c r="E90">
+        <v>76.336</v>
+      </c>
+      <c r="F90">
+        <v>96.536</v>
+      </c>
+      <c r="G90">
+        <v>4.12</v>
+      </c>
+      <c r="H90">
+        <v>89.5</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>2.96</v>
+      </c>
+      <c r="K90">
+        <v>0.635</v>
+      </c>
+      <c r="L90">
+        <v>2.325</v>
+      </c>
+      <c r="M90">
+        <v>17.7336632</v>
+      </c>
+      <c r="N90">
+        <v>-15.4086632</v>
+      </c>
+      <c r="O90">
+        <v>-0</v>
+      </c>
+      <c r="P90">
+        <v>-15.4086632</v>
+      </c>
+      <c r="Q90">
+        <v>-14.7736632</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3431800679447777</v>
+      </c>
+      <c r="T90">
+        <v>6.293214792543031</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0.1837</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.13110658377678</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2045816081533733</v>
+      </c>
+      <c r="C91">
+        <v>-70.33394036670948</v>
+      </c>
+      <c r="D91">
+        <v>23.17905963329052</v>
+      </c>
+      <c r="E91">
+        <v>77.43300000000001</v>
+      </c>
+      <c r="F91">
+        <v>97.63300000000001</v>
+      </c>
+      <c r="G91">
+        <v>4.12</v>
+      </c>
+      <c r="H91">
+        <v>89.5</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>2.96</v>
+      </c>
+      <c r="K91">
+        <v>0.635</v>
+      </c>
+      <c r="L91">
+        <v>2.325</v>
+      </c>
+      <c r="M91">
+        <v>17.9351821</v>
+      </c>
+      <c r="N91">
+        <v>-15.6101821</v>
+      </c>
+      <c r="O91">
+        <v>-0</v>
+      </c>
+      <c r="P91">
+        <v>-15.6101821</v>
+      </c>
+      <c r="Q91">
+        <v>-14.9751821</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3735328013943029</v>
+      </c>
+      <c r="T91">
+        <v>6.865325228228762</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0.1837</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1296334760938948</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2063256081533733</v>
+      </c>
+      <c r="C92">
+        <v>-71.63611308704435</v>
+      </c>
+      <c r="D92">
+        <v>22.97388691295566</v>
+      </c>
+      <c r="E92">
+        <v>78.53</v>
+      </c>
+      <c r="F92">
+        <v>98.73</v>
+      </c>
+      <c r="G92">
+        <v>4.12</v>
+      </c>
+      <c r="H92">
+        <v>89.5</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>2.96</v>
+      </c>
+      <c r="K92">
+        <v>0.635</v>
+      </c>
+      <c r="L92">
+        <v>2.325</v>
+      </c>
+      <c r="M92">
+        <v>18.136701</v>
+      </c>
+      <c r="N92">
+        <v>-15.811701</v>
+      </c>
+      <c r="O92">
+        <v>-0</v>
+      </c>
+      <c r="P92">
+        <v>-15.811701</v>
+      </c>
+      <c r="Q92">
+        <v>-15.176701</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4099560815337333</v>
+      </c>
+      <c r="T92">
+        <v>7.551857751051639</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0.1837</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1281931041372959</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2080696081533733</v>
+      </c>
+      <c r="C93">
+        <v>-72.93468544585927</v>
+      </c>
+      <c r="D93">
+        <v>22.77231455414074</v>
+      </c>
+      <c r="E93">
+        <v>79.62700000000001</v>
+      </c>
+      <c r="F93">
+        <v>99.82700000000001</v>
+      </c>
+      <c r="G93">
+        <v>4.12</v>
+      </c>
+      <c r="H93">
+        <v>89.5</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>2.96</v>
+      </c>
+      <c r="K93">
+        <v>0.635</v>
+      </c>
+      <c r="L93">
+        <v>2.325</v>
+      </c>
+      <c r="M93">
+        <v>18.3382199</v>
+      </c>
+      <c r="N93">
+        <v>-16.0132199</v>
+      </c>
+      <c r="O93">
+        <v>-0</v>
+      </c>
+      <c r="P93">
+        <v>-16.0132199</v>
+      </c>
+      <c r="Q93">
+        <v>-15.3782199</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4544734239263704</v>
+      </c>
+      <c r="T93">
+        <v>8.390953056724044</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0.1837</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1267843887072158</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2098136081533733</v>
+      </c>
+      <c r="C94">
+        <v>-74.22975138735907</v>
+      </c>
+      <c r="D94">
+        <v>22.57424861264093</v>
+      </c>
+      <c r="E94">
+        <v>80.724</v>
+      </c>
+      <c r="F94">
+        <v>100.924</v>
+      </c>
+      <c r="G94">
+        <v>4.12</v>
+      </c>
+      <c r="H94">
+        <v>89.5</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>2.96</v>
+      </c>
+      <c r="K94">
+        <v>0.635</v>
+      </c>
+      <c r="L94">
+        <v>2.325</v>
+      </c>
+      <c r="M94">
+        <v>18.5397388</v>
+      </c>
+      <c r="N94">
+        <v>-16.2147388</v>
+      </c>
+      <c r="O94">
+        <v>-0</v>
+      </c>
+      <c r="P94">
+        <v>-16.2147388</v>
+      </c>
+      <c r="Q94">
+        <v>-15.5797388</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5101201019171667</v>
+      </c>
+      <c r="T94">
+        <v>9.439822188814551</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0.1837</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1254062975256156</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2115576081533733</v>
+      </c>
+      <c r="C95">
+        <v>-75.52140161555022</v>
+      </c>
+      <c r="D95">
+        <v>22.3795983844498</v>
+      </c>
+      <c r="E95">
+        <v>81.82100000000001</v>
+      </c>
+      <c r="F95">
+        <v>102.021</v>
+      </c>
+      <c r="G95">
+        <v>4.12</v>
+      </c>
+      <c r="H95">
+        <v>89.5</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>2.96</v>
+      </c>
+      <c r="K95">
+        <v>0.635</v>
+      </c>
+      <c r="L95">
+        <v>2.325</v>
+      </c>
+      <c r="M95">
+        <v>18.7412577</v>
+      </c>
+      <c r="N95">
+        <v>-16.4162577</v>
+      </c>
+      <c r="O95">
+        <v>-0</v>
+      </c>
+      <c r="P95">
+        <v>-16.4162577</v>
+      </c>
+      <c r="Q95">
+        <v>-15.7812577</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.5816658307624764</v>
+      </c>
+      <c r="T95">
+        <v>10.78836821578806</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0.1837</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1240578427135122</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2133016081533733</v>
+      </c>
+      <c r="C96">
+        <v>-76.80972373274223</v>
+      </c>
+      <c r="D96">
+        <v>22.18827626725778</v>
+      </c>
+      <c r="E96">
+        <v>82.91800000000001</v>
+      </c>
+      <c r="F96">
+        <v>103.118</v>
+      </c>
+      <c r="G96">
+        <v>4.12</v>
+      </c>
+      <c r="H96">
+        <v>89.5</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>2.96</v>
+      </c>
+      <c r="K96">
+        <v>0.635</v>
+      </c>
+      <c r="L96">
+        <v>2.325</v>
+      </c>
+      <c r="M96">
+        <v>18.9427766</v>
+      </c>
+      <c r="N96">
+        <v>-16.6177766</v>
+      </c>
+      <c r="O96">
+        <v>-0</v>
+      </c>
+      <c r="P96">
+        <v>-16.6177766</v>
+      </c>
+      <c r="Q96">
+        <v>-15.9827766</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.6770601358895559</v>
+      </c>
+      <c r="T96">
+        <v>12.58642958508607</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0.1837</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1227380784293258</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2150456081533733</v>
+      </c>
+      <c r="C97">
+        <v>-78.0948023710053</v>
+      </c>
+      <c r="D97">
+        <v>22.00019762899469</v>
+      </c>
+      <c r="E97">
+        <v>84.015</v>
+      </c>
+      <c r="F97">
+        <v>104.215</v>
+      </c>
+      <c r="G97">
+        <v>4.12</v>
+      </c>
+      <c r="H97">
+        <v>89.5</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>2.96</v>
+      </c>
+      <c r="K97">
+        <v>0.635</v>
+      </c>
+      <c r="L97">
+        <v>2.325</v>
+      </c>
+      <c r="M97">
+        <v>19.1442955</v>
+      </c>
+      <c r="N97">
+        <v>-16.8192955</v>
+      </c>
+      <c r="O97">
+        <v>-0</v>
+      </c>
+      <c r="P97">
+        <v>-16.8192955</v>
+      </c>
+      <c r="Q97">
+        <v>-16.1842955</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.8106121630674675</v>
+      </c>
+      <c r="T97">
+        <v>15.1037155021033</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0.1837</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1214460986563856</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2167896081533733</v>
+      </c>
+      <c r="C98">
+        <v>-79.37671931699811</v>
+      </c>
+      <c r="D98">
+        <v>21.81528068300188</v>
+      </c>
+      <c r="E98">
+        <v>85.11199999999999</v>
+      </c>
+      <c r="F98">
+        <v>105.312</v>
+      </c>
+      <c r="G98">
+        <v>4.12</v>
+      </c>
+      <c r="H98">
+        <v>89.5</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>2.96</v>
+      </c>
+      <c r="K98">
+        <v>0.635</v>
+      </c>
+      <c r="L98">
+        <v>2.325</v>
+      </c>
+      <c r="M98">
+        <v>19.3458144</v>
+      </c>
+      <c r="N98">
+        <v>-17.0208144</v>
+      </c>
+      <c r="O98">
+        <v>-0</v>
+      </c>
+      <c r="P98">
+        <v>-17.0208144</v>
+      </c>
+      <c r="Q98">
+        <v>-16.3858144</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.010940203834332</v>
+      </c>
+      <c r="T98">
+        <v>18.87964437762908</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0.1837</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1201810351287149</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2185336081533733</v>
+      </c>
+      <c r="C99">
+        <v>-80.65555363055289</v>
+      </c>
+      <c r="D99">
+        <v>21.63344636944712</v>
+      </c>
+      <c r="E99">
+        <v>86.209</v>
+      </c>
+      <c r="F99">
+        <v>106.409</v>
+      </c>
+      <c r="G99">
+        <v>4.12</v>
+      </c>
+      <c r="H99">
+        <v>89.5</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>2.96</v>
+      </c>
+      <c r="K99">
+        <v>0.635</v>
+      </c>
+      <c r="L99">
+        <v>2.325</v>
+      </c>
+      <c r="M99">
+        <v>19.5473333</v>
+      </c>
+      <c r="N99">
+        <v>-17.2223333</v>
+      </c>
+      <c r="O99">
+        <v>-0</v>
+      </c>
+      <c r="P99">
+        <v>-17.2223333</v>
+      </c>
+      <c r="Q99">
+        <v>-16.5873333</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.34482027177911</v>
+      </c>
+      <c r="T99">
+        <v>25.1728591701721</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0.1837</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1189420553851199</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2202776081533733</v>
+      </c>
+      <c r="C100">
+        <v>-81.93138175737897</v>
+      </c>
+      <c r="D100">
+        <v>21.45461824262103</v>
+      </c>
+      <c r="E100">
+        <v>87.306</v>
+      </c>
+      <c r="F100">
+        <v>107.506</v>
+      </c>
+      <c r="G100">
+        <v>4.12</v>
+      </c>
+      <c r="H100">
+        <v>89.5</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>2.96</v>
+      </c>
+      <c r="K100">
+        <v>0.635</v>
+      </c>
+      <c r="L100">
+        <v>2.325</v>
+      </c>
+      <c r="M100">
+        <v>19.7488522</v>
+      </c>
+      <c r="N100">
+        <v>-17.4238522</v>
+      </c>
+      <c r="O100">
+        <v>-0</v>
+      </c>
+      <c r="P100">
+        <v>-17.4238522</v>
+      </c>
+      <c r="Q100">
+        <v>-16.7888522</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.012580407668664</v>
+      </c>
+      <c r="T100">
+        <v>37.75928875525815</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0.1837</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.1177283609424146</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2220216081533733</v>
+      </c>
+      <c r="C101">
+        <v>-83.20427763622244</v>
+      </c>
+      <c r="D101">
+        <v>21.27872236377756</v>
+      </c>
+      <c r="E101">
+        <v>88.40300000000001</v>
+      </c>
+      <c r="F101">
+        <v>108.603</v>
+      </c>
+      <c r="G101">
+        <v>4.12</v>
+      </c>
+      <c r="H101">
+        <v>89.5</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>2.96</v>
+      </c>
+      <c r="K101">
+        <v>0.635</v>
+      </c>
+      <c r="L101">
+        <v>2.325</v>
+      </c>
+      <c r="M101">
+        <v>19.9503711</v>
+      </c>
+      <c r="N101">
+        <v>-17.6253711</v>
+      </c>
+      <c r="O101">
+        <v>-0</v>
+      </c>
+      <c r="P101">
+        <v>-17.6253711</v>
+      </c>
+      <c r="Q101">
+        <v>-16.9903711</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.015860815337328</v>
+      </c>
+      <c r="T101">
+        <v>75.51857751051631</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0.1837</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.1165391855793599</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
